--- a/samples/JP_CustomFieldTest__c.xlsx
+++ b/samples/JP_CustomFieldTest__c.xlsx
@@ -5,15 +5,15 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\小森貴広\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\electron\salesforce-upsert-customfiled-tool\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CBDE32-7C2F-4323-BF71-B15CDF150C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3604605-BFE4-494A-A14F-A47860794F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="項目" sheetId="11" r:id="rId1"/>
+    <sheet name="Field" sheetId="11" r:id="rId1"/>
     <sheet name="HELP" sheetId="14" r:id="rId2"/>
     <sheet name="meta_レイアウト" sheetId="15" r:id="rId3"/>
     <sheet name="meta_レポート" sheetId="16" r:id="rId4"/>
@@ -2540,19 +2540,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2560,11 +2548,29 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2584,44 +2590,26 @@
     <xf numFmtId="49" fontId="6" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2640,6 +2628,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3437,64 +3437,64 @@
   <dimension ref="A1:BB45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="X7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="61.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="23.84375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.69140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.07421875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.23046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.07421875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.53515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.07421875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.4609375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.53515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.69140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.69140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.3046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.07421875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.53515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.53515625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="61.84375" style="5" customWidth="1"/>
     <col min="19" max="19" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="38.5546875" style="5" customWidth="1"/>
+    <col min="20" max="20" width="18.53515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.3046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.53515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.23046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.23046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.4609375" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38.53515625" style="5" customWidth="1"/>
     <col min="28" max="28" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="34.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.21875" style="5" customWidth="1"/>
-    <col min="33" max="33" width="31.21875" style="5" customWidth="1"/>
-    <col min="34" max="34" width="21.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.109375" style="5" customWidth="1"/>
-    <col min="39" max="47" width="1.77734375" style="5" customWidth="1"/>
-    <col min="48" max="48" width="3.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.21875" style="5" customWidth="1"/>
-    <col min="50" max="50" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="24.109375" style="5" customWidth="1"/>
-    <col min="52" max="52" width="40.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.3046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.3046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="34.69140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.23046875" style="5" customWidth="1"/>
+    <col min="33" max="33" width="31.23046875" style="5" customWidth="1"/>
+    <col min="34" max="34" width="21.84375" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.07421875" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.23046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.3046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.07421875" style="5" customWidth="1"/>
+    <col min="39" max="47" width="1.765625" style="5" customWidth="1"/>
+    <col min="48" max="48" width="3.84375" style="5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.23046875" style="5" customWidth="1"/>
+    <col min="50" max="50" width="11.765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="24.07421875" style="5" customWidth="1"/>
+    <col min="52" max="52" width="40.765625" style="5" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="36" style="5" customWidth="1"/>
-    <col min="54" max="54" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="8.88671875" style="5"/>
+    <col min="54" max="54" width="21.3046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="8.84375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:54" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:54" ht="29.15" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>197</v>
       </c>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>196</v>
       </c>
@@ -3521,124 +3521,124 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="75" t="s">
+      <c r="K4" s="68"/>
+      <c r="L4" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="69" t="s">
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69" t="s">
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69" t="s">
+      <c r="W4" s="68"/>
+      <c r="X4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="87" t="s">
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="76" t="s">
         <v>262</v>
       </c>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="89"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="78"/>
       <c r="AF4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AG4" s="75" t="s">
+      <c r="AG4" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="73" t="s">
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="AJ4" s="83" t="s">
+      <c r="AJ4" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="AK4" s="73" t="s">
+      <c r="AK4" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="AL4" s="85" t="s">
+      <c r="AL4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="85"/>
-      <c r="AO4" s="85"/>
-      <c r="AP4" s="85"/>
-      <c r="AQ4" s="85"/>
-      <c r="AR4" s="85"/>
-      <c r="AS4" s="85"/>
-      <c r="AT4" s="85"/>
-      <c r="AU4" s="85"/>
-      <c r="AV4" s="81" t="s">
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="73"/>
+      <c r="AQ4" s="73"/>
+      <c r="AR4" s="73"/>
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="73"/>
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="AW4" s="77" t="s">
+      <c r="AW4" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="AX4" s="77" t="s">
+      <c r="AX4" s="79" t="s">
         <v>266</v>
       </c>
-      <c r="AY4" s="77" t="s">
+      <c r="AY4" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="AZ4" s="77" t="s">
+      <c r="AZ4" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="BA4" s="79" t="s">
+      <c r="BA4" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="BB4" s="79" t="s">
+      <c r="BB4" s="81" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:54" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="74"/>
+    <row r="5" spans="1:54" ht="43.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="70"/>
       <c r="H5" s="36" t="s">
         <v>207</v>
       </c>
@@ -3720,9 +3720,9 @@
       <c r="AH5" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="74"/>
+      <c r="AI5" s="70"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="70"/>
       <c r="AL5" s="34" t="s">
         <v>23</v>
       </c>
@@ -3735,15 +3735,15 @@
       <c r="AS5" s="37"/>
       <c r="AT5" s="35"/>
       <c r="AU5" s="35"/>
-      <c r="AV5" s="82"/>
-      <c r="AW5" s="78"/>
-      <c r="AX5" s="78"/>
-      <c r="AY5" s="78"/>
-      <c r="AZ5" s="78"/>
-      <c r="BA5" s="80"/>
-      <c r="BB5" s="80"/>
-    </row>
-    <row r="6" spans="1:54" s="24" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="AV5" s="84"/>
+      <c r="AW5" s="80"/>
+      <c r="AX5" s="80"/>
+      <c r="AY5" s="80"/>
+      <c r="AZ5" s="80"/>
+      <c r="BA5" s="82"/>
+      <c r="BB5" s="82"/>
+    </row>
+    <row r="6" spans="1:54" s="24" customFormat="1" ht="57.9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>90</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
@@ -3975,7 +3975,7 @@
       <c r="BA7" s="18"/>
       <c r="BB7" s="18"/>
     </row>
-    <row r="8" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>133</v>
       </c>
@@ -4039,7 +4039,7 @@
       <c r="BA8" s="18"/>
       <c r="BB8" s="18"/>
     </row>
-    <row r="9" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>42</v>
       </c>
@@ -4103,7 +4103,7 @@
       <c r="BA9" s="18"/>
       <c r="BB9" s="18"/>
     </row>
-    <row r="10" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>100</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="BA10" s="18"/>
       <c r="BB10" s="18"/>
     </row>
-    <row r="11" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>101</v>
       </c>
@@ -4233,7 +4233,7 @@
       <c r="BA11" s="18"/>
       <c r="BB11" s="18"/>
     </row>
-    <row r="12" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -4303,7 +4303,7 @@
       <c r="BA12" s="18"/>
       <c r="BB12" s="18"/>
     </row>
-    <row r="13" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>104</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="BA13" s="18"/>
       <c r="BB13" s="18"/>
     </row>
-    <row r="14" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>40</v>
       </c>
@@ -4435,7 +4435,7 @@
       <c r="BA14" s="18"/>
       <c r="BB14" s="18"/>
     </row>
-    <row r="15" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
@@ -4503,7 +4503,7 @@
       <c r="BA15" s="18"/>
       <c r="BB15" s="18"/>
     </row>
-    <row r="16" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
@@ -4571,7 +4571,7 @@
       <c r="BA16" s="18"/>
       <c r="BB16" s="18"/>
     </row>
-    <row r="17" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
@@ -4639,7 +4639,7 @@
       <c r="BA17" s="18"/>
       <c r="BB17" s="18"/>
     </row>
-    <row r="18" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>49</v>
       </c>
@@ -4707,7 +4707,7 @@
       <c r="BA18" s="18"/>
       <c r="BB18" s="18"/>
     </row>
-    <row r="19" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>45</v>
       </c>
@@ -4775,7 +4775,7 @@
       <c r="BA19" s="18"/>
       <c r="BB19" s="18"/>
     </row>
-    <row r="20" spans="1:54" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:54" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>46</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="BA20" s="18"/>
       <c r="BB20" s="18"/>
     </row>
-    <row r="21" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>276</v>
       </c>
@@ -4913,7 +4913,7 @@
       <c r="BA21" s="18"/>
       <c r="BB21" s="18"/>
     </row>
-    <row r="22" spans="1:54" s="4" customFormat="1" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:54" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>244</v>
       </c>
@@ -4983,7 +4983,7 @@
       <c r="BA22" s="18"/>
       <c r="BB22" s="18"/>
     </row>
-    <row r="23" spans="1:54" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:54" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>47</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="BA23" s="18"/>
       <c r="BB23" s="18"/>
     </row>
-    <row r="24" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>48</v>
       </c>
@@ -5117,7 +5117,7 @@
       <c r="BA24" s="18"/>
       <c r="BB24" s="18"/>
     </row>
-    <row r="25" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>50</v>
       </c>
@@ -5181,7 +5181,7 @@
       <c r="BA25" s="18"/>
       <c r="BB25" s="18"/>
     </row>
-    <row r="26" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>51</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="BA26" s="18"/>
       <c r="BB26" s="18"/>
     </row>
-    <row r="27" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
@@ -5309,7 +5309,7 @@
       <c r="BA27" s="18"/>
       <c r="BB27" s="18"/>
     </row>
-    <row r="28" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>91</v>
       </c>
@@ -5385,7 +5385,7 @@
       <c r="BA28" s="18"/>
       <c r="BB28" s="18"/>
     </row>
-    <row r="29" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>92</v>
       </c>
@@ -5461,7 +5461,7 @@
       <c r="BA29" s="18"/>
       <c r="BB29" s="18"/>
     </row>
-    <row r="30" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>93</v>
       </c>
@@ -5537,7 +5537,7 @@
       <c r="BA30" s="18"/>
       <c r="BB30" s="18"/>
     </row>
-    <row r="31" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>94</v>
       </c>
@@ -5609,7 +5609,7 @@
       <c r="BA31" s="18"/>
       <c r="BB31" s="18"/>
     </row>
-    <row r="32" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>95</v>
       </c>
@@ -5681,7 +5681,7 @@
       <c r="BA32" s="18"/>
       <c r="BB32" s="18"/>
     </row>
-    <row r="33" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>96</v>
       </c>
@@ -5753,7 +5753,7 @@
       <c r="BA33" s="18"/>
       <c r="BB33" s="18"/>
     </row>
-    <row r="34" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>97</v>
       </c>
@@ -5825,7 +5825,7 @@
       <c r="BA34" s="18"/>
       <c r="BB34" s="18"/>
     </row>
-    <row r="35" spans="1:54" s="4" customFormat="1" ht="171.6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:54" s="4" customFormat="1" ht="189.45" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>230</v>
       </c>
@@ -5899,7 +5899,7 @@
       <c r="BA35" s="18"/>
       <c r="BB35" s="18"/>
     </row>
-    <row r="36" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>38</v>
       </c>
@@ -5967,7 +5967,7 @@
       <c r="BA36" s="18"/>
       <c r="BB36" s="18"/>
     </row>
-    <row r="37" spans="1:54" s="4" customFormat="1" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:54" s="4" customFormat="1" ht="58.3" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>127</v>
       </c>
@@ -6039,7 +6039,7 @@
       <c r="BA37" s="18"/>
       <c r="BB37" s="18"/>
     </row>
-    <row r="38" spans="1:54" s="4" customFormat="1" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:54" s="4" customFormat="1" ht="58.3" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>128</v>
       </c>
@@ -6111,7 +6111,7 @@
       <c r="BA38" s="18"/>
       <c r="BB38" s="18"/>
     </row>
-    <row r="39" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>129</v>
       </c>
@@ -6181,7 +6181,7 @@
       <c r="BA39" s="18"/>
       <c r="BB39" s="18"/>
     </row>
-    <row r="40" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>130</v>
       </c>
@@ -6251,7 +6251,7 @@
       <c r="BA40" s="18"/>
       <c r="BB40" s="18"/>
     </row>
-    <row r="41" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -6307,7 +6307,7 @@
       <c r="BA41" s="18"/>
       <c r="BB41" s="18"/>
     </row>
-    <row r="42" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -6363,7 +6363,7 @@
       <c r="BA42" s="18"/>
       <c r="BB42" s="18"/>
     </row>
-    <row r="43" spans="1:54" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:54" s="4" customFormat="1" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -6419,7 +6419,7 @@
       <c r="BA43" s="18"/>
       <c r="BB43" s="18"/>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="26" t="s">
         <v>110</v>
@@ -6477,9 +6477,28 @@
       <c r="BA44" s="27"/>
       <c r="BB44" s="27"/>
     </row>
-    <row r="45" spans="1:54" s="57" customFormat="1" ht="11.4" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:54" s="57" customFormat="1" ht="11.6" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="AW4:AW5"/>
     <mergeCell ref="X4:AA4"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AJ4:AJ5"/>
@@ -6487,25 +6506,6 @@
     <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AG4:AH4"/>
     <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H10 H12 H14:H20 H23:H34 H41:H1048576">
@@ -6676,18 +6676,18 @@
       <selection activeCell="E106" sqref="E106:E108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="4"/>
+    <col min="1" max="1" width="9.23046875" style="4"/>
     <col min="2" max="2" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="117.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.21875" style="4"/>
+    <col min="3" max="3" width="19.53515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.53515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="117.3046875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.23046875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.23046875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
         <v>134</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="90" t="s">
         <v>34</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="90"/>
       <c r="C4" s="18" t="s">
         <v>137</v>
@@ -6721,7 +6721,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="91"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="90"/>
       <c r="C5" s="18" t="s">
         <v>131</v>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="E5" s="91"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="90"/>
       <c r="C6" s="29" t="s">
         <v>132</v>
@@ -6739,7 +6739,7 @@
       <c r="D6" s="30"/>
       <c r="E6" s="91"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
       <c r="C7" s="18" t="s">
         <v>140</v>
@@ -6747,7 +6747,7 @@
       <c r="D7" s="18"/>
       <c r="E7" s="91"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="90"/>
       <c r="C8" s="18" t="s">
         <v>135</v>
@@ -6755,43 +6755,43 @@
       <c r="D8" s="18"/>
       <c r="E8" s="91"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="96" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="92" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>136</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="95" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="97"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="93"/>
       <c r="C10" s="18" t="s">
         <v>139</v>
       </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="100"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="97"/>
+      <c r="E10" s="96"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="93"/>
       <c r="C11" s="18" t="s">
         <v>140</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="100"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="98"/>
+      <c r="E11" s="96"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="94"/>
       <c r="C12" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="101"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="97"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="90" t="s">
         <v>18</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="90"/>
       <c r="C14" s="18" t="s">
         <v>141</v>
@@ -6811,7 +6811,7 @@
       <c r="D14" s="18"/>
       <c r="E14" s="91"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="90"/>
       <c r="C15" s="18" t="s">
         <v>137</v>
@@ -6819,7 +6819,7 @@
       <c r="D15" s="18"/>
       <c r="E15" s="91"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="90"/>
       <c r="C16" s="18" t="s">
         <v>139</v>
@@ -6827,7 +6827,7 @@
       <c r="D16" s="18"/>
       <c r="E16" s="91"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="90"/>
       <c r="C17" s="18" t="s">
         <v>140</v>
@@ -6835,7 +6835,7 @@
       <c r="D17" s="18"/>
       <c r="E17" s="91"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="90"/>
       <c r="C18" s="18" t="s">
         <v>135</v>
@@ -6843,7 +6843,7 @@
       <c r="D18" s="18"/>
       <c r="E18" s="91"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
         <v>142</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="90"/>
       <c r="C20" s="18" t="s">
         <v>140</v>
@@ -6863,7 +6863,7 @@
       <c r="D20" s="18"/>
       <c r="E20" s="91"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="90"/>
       <c r="C21" s="18" t="s">
         <v>135</v>
@@ -6871,7 +6871,7 @@
       <c r="D21" s="18"/>
       <c r="E21" s="91"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="90" t="s">
         <v>12</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="90"/>
       <c r="C23" s="18" t="s">
         <v>141</v>
@@ -6891,7 +6891,7 @@
       <c r="D23" s="18"/>
       <c r="E23" s="91"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="90"/>
       <c r="C24" s="18" t="s">
         <v>137</v>
@@ -6899,7 +6899,7 @@
       <c r="D24" s="18"/>
       <c r="E24" s="91"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="90"/>
       <c r="C25" s="29" t="s">
         <v>144</v>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="E25" s="91"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="90"/>
       <c r="C26" s="18" t="s">
         <v>139</v>
@@ -6917,7 +6917,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="91"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="90"/>
       <c r="C27" s="18" t="s">
         <v>140</v>
@@ -6925,7 +6925,7 @@
       <c r="D27" s="18"/>
       <c r="E27" s="91"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="90"/>
       <c r="C28" s="18" t="s">
         <v>135</v>
@@ -6933,7 +6933,7 @@
       <c r="D28" s="18"/>
       <c r="E28" s="91"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="90" t="s">
         <v>13</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="90"/>
       <c r="C30" s="18" t="s">
         <v>137</v>
@@ -6953,7 +6953,7 @@
       <c r="D30" s="18"/>
       <c r="E30" s="91"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="90"/>
       <c r="C31" s="18" t="s">
         <v>139</v>
@@ -6961,7 +6961,7 @@
       <c r="D31" s="18"/>
       <c r="E31" s="91"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="90"/>
       <c r="C32" s="18" t="s">
         <v>140</v>
@@ -6969,7 +6969,7 @@
       <c r="D32" s="18"/>
       <c r="E32" s="91"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="90"/>
       <c r="C33" s="18" t="s">
         <v>135</v>
@@ -6977,7 +6977,7 @@
       <c r="D33" s="18"/>
       <c r="E33" s="91"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="90" t="s">
         <v>31</v>
       </c>
@@ -6987,11 +6987,11 @@
       <c r="D34" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E34" s="94" t="s">
+      <c r="E34" s="98" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="90"/>
       <c r="C35" s="29" t="s">
         <v>150</v>
@@ -6999,25 +6999,25 @@
       <c r="D35" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="E35" s="94"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="98"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="90"/>
       <c r="C36" s="18" t="s">
         <v>140</v>
       </c>
       <c r="D36" s="18"/>
-      <c r="E36" s="94"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="98"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="90"/>
       <c r="C37" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D37" s="18"/>
-      <c r="E37" s="94"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="98"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="90" t="s">
         <v>20</v>
       </c>
@@ -7027,11 +7027,11 @@
       <c r="D38" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E38" s="94" t="s">
+      <c r="E38" s="98" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="90"/>
       <c r="C39" s="29" t="s">
         <v>150</v>
@@ -7039,33 +7039,33 @@
       <c r="D39" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="95"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="99"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="90"/>
       <c r="C40" s="18" t="s">
         <v>139</v>
       </c>
       <c r="D40" s="18"/>
-      <c r="E40" s="95"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="99"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="90"/>
       <c r="C41" s="18" t="s">
         <v>140</v>
       </c>
       <c r="D41" s="18"/>
-      <c r="E41" s="95"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="99"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="90"/>
       <c r="C42" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D42" s="18"/>
-      <c r="E42" s="95"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="99"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="90" t="s">
         <v>19</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="90"/>
       <c r="C44" s="29" t="s">
         <v>161</v>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="E44" s="91"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="90"/>
       <c r="C45" s="29" t="s">
         <v>162</v>
@@ -7097,7 +7097,7 @@
       </c>
       <c r="E45" s="91"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="90"/>
       <c r="C46" s="18" t="s">
         <v>139</v>
@@ -7105,7 +7105,7 @@
       <c r="D46" s="18"/>
       <c r="E46" s="91"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="90"/>
       <c r="C47" s="18" t="s">
         <v>140</v>
@@ -7113,7 +7113,7 @@
       <c r="D47" s="18"/>
       <c r="E47" s="91"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="90"/>
       <c r="C48" s="18" t="s">
         <v>135</v>
@@ -7121,7 +7121,7 @@
       <c r="D48" s="18"/>
       <c r="E48" s="91"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="90" t="s">
         <v>14</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="90"/>
       <c r="C50" s="29" t="s">
         <v>161</v>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="E50" s="91"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="90"/>
       <c r="C51" s="29" t="s">
         <v>162</v>
@@ -7153,7 +7153,7 @@
       </c>
       <c r="E51" s="91"/>
     </row>
-    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="90"/>
       <c r="C52" s="18" t="s">
         <v>139</v>
@@ -7161,7 +7161,7 @@
       <c r="D52" s="18"/>
       <c r="E52" s="91"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="90"/>
       <c r="C53" s="18" t="s">
         <v>140</v>
@@ -7169,7 +7169,7 @@
       <c r="D53" s="18"/>
       <c r="E53" s="91"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="90"/>
       <c r="C54" s="18" t="s">
         <v>135</v>
@@ -7177,7 +7177,7 @@
       <c r="D54" s="18"/>
       <c r="E54" s="91"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="90" t="s">
         <v>16</v>
       </c>
@@ -7189,23 +7189,23 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="90"/>
       <c r="C56" s="18" t="s">
         <v>141</v>
       </c>
       <c r="D56" s="18"/>
-      <c r="E56" s="92"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E56" s="100"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="90"/>
       <c r="C57" s="18" t="s">
         <v>137</v>
       </c>
       <c r="D57" s="18"/>
-      <c r="E57" s="92"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E57" s="100"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="90"/>
       <c r="C58" s="29" t="s">
         <v>161</v>
@@ -7213,9 +7213,9 @@
       <c r="D58" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="92"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E58" s="100"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="90"/>
       <c r="C59" s="29" t="s">
         <v>162</v>
@@ -7223,33 +7223,33 @@
       <c r="D59" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E59" s="92"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E59" s="100"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="90"/>
       <c r="C60" s="18" t="s">
         <v>139</v>
       </c>
       <c r="D60" s="18"/>
-      <c r="E60" s="92"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E60" s="100"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="90"/>
       <c r="C61" s="18" t="s">
         <v>140</v>
       </c>
       <c r="D61" s="18"/>
-      <c r="E61" s="92"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E61" s="100"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="90"/>
       <c r="C62" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D62" s="18"/>
-      <c r="E62" s="92"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E62" s="100"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="90" t="s">
         <v>15</v>
       </c>
@@ -7261,63 +7261,63 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="90"/>
       <c r="C64" s="33" t="s">
         <v>168</v>
       </c>
       <c r="D64" s="18"/>
-      <c r="E64" s="92"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E64" s="100"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="90"/>
       <c r="C65" s="29" t="s">
         <v>169</v>
       </c>
       <c r="D65" s="18"/>
-      <c r="E65" s="92"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E65" s="100"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="90"/>
       <c r="C66" s="32" t="s">
         <v>170</v>
       </c>
       <c r="D66" s="18"/>
-      <c r="E66" s="92"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="100"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="90"/>
       <c r="C67" s="18" t="s">
         <v>171</v>
       </c>
       <c r="D67" s="18"/>
-      <c r="E67" s="92"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E67" s="100"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="90"/>
       <c r="C68" s="18" t="s">
         <v>139</v>
       </c>
       <c r="D68" s="18"/>
-      <c r="E68" s="92"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E68" s="100"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="90"/>
       <c r="C69" s="18" t="s">
         <v>140</v>
       </c>
       <c r="D69" s="18"/>
-      <c r="E69" s="92"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="100"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="90"/>
       <c r="C70" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D70" s="18"/>
-      <c r="E70" s="92"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E70" s="100"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="90" t="s">
         <v>27</v>
       </c>
@@ -7325,43 +7325,43 @@
         <v>136</v>
       </c>
       <c r="D71" s="18"/>
-      <c r="E71" s="94" t="s">
+      <c r="E71" s="98" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="90"/>
       <c r="C72" s="33" t="s">
         <v>168</v>
       </c>
       <c r="D72" s="18"/>
-      <c r="E72" s="94"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="98"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="90"/>
       <c r="C73" s="29" t="s">
         <v>169</v>
       </c>
       <c r="D73" s="18"/>
-      <c r="E73" s="94"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E73" s="98"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="90"/>
       <c r="C74" s="32" t="s">
         <v>170</v>
       </c>
       <c r="D74" s="18"/>
-      <c r="E74" s="94"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E74" s="98"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="90"/>
       <c r="C75" s="18" t="s">
         <v>171</v>
       </c>
       <c r="D75" s="18"/>
-      <c r="E75" s="94"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E75" s="98"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="90"/>
       <c r="C76" s="29" t="s">
         <v>173</v>
@@ -7369,33 +7369,33 @@
       <c r="D76" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="E76" s="94"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E76" s="98"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="90"/>
       <c r="C77" s="18" t="s">
         <v>139</v>
       </c>
       <c r="D77" s="18"/>
-      <c r="E77" s="94"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E77" s="98"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="90"/>
       <c r="C78" s="18" t="s">
         <v>140</v>
       </c>
       <c r="D78" s="18"/>
-      <c r="E78" s="94"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E78" s="98"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="90"/>
       <c r="C79" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D79" s="18"/>
-      <c r="E79" s="94"/>
-    </row>
-    <row r="80" spans="2:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E79" s="98"/>
+    </row>
+    <row r="80" spans="2:5" ht="43.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="90" t="s">
         <v>30</v>
       </c>
@@ -7403,11 +7403,11 @@
         <v>136</v>
       </c>
       <c r="D80" s="18"/>
-      <c r="E80" s="94" t="s">
+      <c r="E80" s="98" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="90"/>
       <c r="C81" s="18" t="s">
         <v>177</v>
@@ -7415,25 +7415,25 @@
       <c r="D81" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E81" s="94"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E81" s="98"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="90"/>
       <c r="C82" s="18" t="s">
         <v>140</v>
       </c>
       <c r="D82" s="18"/>
-      <c r="E82" s="94"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E82" s="98"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="90"/>
       <c r="C83" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D83" s="18"/>
-      <c r="E83" s="94"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E83" s="98"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="90" t="s">
         <v>17</v>
       </c>
@@ -7441,35 +7441,35 @@
         <v>136</v>
       </c>
       <c r="D84" s="18"/>
-      <c r="E84" s="92" t="s">
+      <c r="E84" s="100" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="90"/>
       <c r="C85" s="18" t="s">
         <v>139</v>
       </c>
       <c r="D85" s="18"/>
-      <c r="E85" s="92"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E85" s="100"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="90"/>
       <c r="C86" s="18" t="s">
         <v>140</v>
       </c>
       <c r="D86" s="18"/>
-      <c r="E86" s="92"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E86" s="100"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="90"/>
       <c r="C87" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D87" s="18"/>
-      <c r="E87" s="92"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E87" s="100"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="90" t="s">
         <v>22</v>
       </c>
@@ -7477,35 +7477,35 @@
         <v>136</v>
       </c>
       <c r="D88" s="18"/>
-      <c r="E88" s="92" t="s">
+      <c r="E88" s="100" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="90"/>
       <c r="C89" s="18" t="s">
         <v>139</v>
       </c>
       <c r="D89" s="18"/>
-      <c r="E89" s="92"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E89" s="100"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="90"/>
       <c r="C90" s="18" t="s">
         <v>140</v>
       </c>
       <c r="D90" s="18"/>
-      <c r="E90" s="92"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E90" s="100"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="90"/>
       <c r="C91" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D91" s="18"/>
-      <c r="E91" s="92"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E91" s="100"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="90" t="s">
         <v>21</v>
       </c>
@@ -7513,35 +7513,35 @@
         <v>136</v>
       </c>
       <c r="D92" s="18"/>
-      <c r="E92" s="93" t="s">
+      <c r="E92" s="101" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="90"/>
       <c r="C93" s="18" t="s">
         <v>139</v>
       </c>
       <c r="D93" s="18"/>
-      <c r="E93" s="93"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E93" s="101"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="90"/>
       <c r="C94" s="18" t="s">
         <v>140</v>
       </c>
       <c r="D94" s="18"/>
-      <c r="E94" s="93"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E94" s="101"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="90"/>
       <c r="C95" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D95" s="18"/>
-      <c r="E95" s="93"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E95" s="101"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="90" t="s">
         <v>25</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="90"/>
       <c r="C97" s="29" t="s">
         <v>185</v>
@@ -7561,7 +7561,7 @@
       <c r="D97" s="18"/>
       <c r="E97" s="91"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="90"/>
       <c r="C98" s="18" t="s">
         <v>186</v>
@@ -7569,7 +7569,7 @@
       <c r="D98" s="18"/>
       <c r="E98" s="91"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="90"/>
       <c r="C99" s="18" t="s">
         <v>140</v>
@@ -7577,7 +7577,7 @@
       <c r="D99" s="18"/>
       <c r="E99" s="91"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="90"/>
       <c r="C100" s="18" t="s">
         <v>135</v>
@@ -7585,7 +7585,7 @@
       <c r="D100" s="18"/>
       <c r="E100" s="91"/>
     </row>
-    <row r="101" spans="2:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5" ht="14.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="90" t="s">
         <v>1</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="90"/>
       <c r="C102" s="29" t="s">
         <v>187</v>
@@ -7605,7 +7605,7 @@
       <c r="D102" s="18"/>
       <c r="E102" s="91"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="90"/>
       <c r="C103" s="18" t="s">
         <v>188</v>
@@ -7613,7 +7613,7 @@
       <c r="D103" s="18"/>
       <c r="E103" s="91"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="90"/>
       <c r="C104" s="18" t="s">
         <v>140</v>
@@ -7621,7 +7621,7 @@
       <c r="D104" s="18"/>
       <c r="E104" s="91"/>
     </row>
-    <row r="105" spans="2:5" ht="84.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5" ht="84.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="90"/>
       <c r="C105" s="18" t="s">
         <v>135</v>
@@ -7629,7 +7629,7 @@
       <c r="D105" s="18"/>
       <c r="E105" s="91"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="90" t="s">
         <v>191</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="90"/>
       <c r="C107" s="18" t="s">
         <v>140</v>
@@ -7649,7 +7649,7 @@
       <c r="D107" s="18"/>
       <c r="E107" s="91"/>
     </row>
-    <row r="108" spans="2:5" ht="186.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:5" ht="186.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="90"/>
       <c r="C108" s="18" t="s">
         <v>135</v>
@@ -7657,7 +7657,7 @@
       <c r="D108" s="18"/>
       <c r="E108" s="91"/>
     </row>
-    <row r="109" spans="2:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5" ht="43.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="90" t="s">
         <v>172</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="90"/>
       <c r="C110" s="31" t="s">
         <v>193</v>
@@ -7677,7 +7677,7 @@
       <c r="D110" s="31"/>
       <c r="E110" s="91"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="90"/>
       <c r="C111" s="31" t="s">
         <v>194</v>
@@ -7685,7 +7685,7 @@
       <c r="D111" s="31"/>
       <c r="E111" s="91"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="90"/>
       <c r="C112" s="31" t="s">
         <v>140</v>
@@ -7693,7 +7693,7 @@
       <c r="D112" s="31"/>
       <c r="E112" s="91"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="90"/>
       <c r="C113" s="31" t="s">
         <v>135</v>
@@ -7703,6 +7703,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="E96:E100"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="B63:B70"/>
+    <mergeCell ref="E63:E70"/>
+    <mergeCell ref="B71:B79"/>
+    <mergeCell ref="E71:E79"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="E43:E48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="E49:E54"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="E55:E62"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="E38:E42"/>
     <mergeCell ref="B106:B108"/>
     <mergeCell ref="E106:E108"/>
     <mergeCell ref="B109:B113"/>
@@ -7719,32 +7745,6 @@
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="B22:B28"/>
     <mergeCell ref="E22:E28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="E43:E48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="E49:E54"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="E55:E62"/>
-    <mergeCell ref="B63:B70"/>
-    <mergeCell ref="E63:E70"/>
-    <mergeCell ref="B71:B79"/>
-    <mergeCell ref="E71:E79"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="E96:E100"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="E92:E95"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C17:C18">
@@ -7844,18 +7844,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="64" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="64" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="99.21875" style="65" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.07421875" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3046875" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.765625" style="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.69140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.23046875" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.84375" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="99.23046875" style="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A1" s="61"/>
       <c r="B1" s="62"/>
       <c r="C1" s="61"/>
@@ -7868,26 +7868,26 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="24" t="str">
-        <f>IF(OR(項目!C7="数式",項目!C7="主従関係",項目!C7="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C7="数式",Field!C7="主従関係",Field!C7="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C2" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D2" s="24" t="str">
-        <f>項目!B7</f>
+        <f>Field!B7</f>
         <v>test_auto__c</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F2" s="60">
-        <f>項目!AW7</f>
+        <f>Field!AW7</f>
         <v>0</v>
       </c>
       <c r="G2" s="60" t="str">
@@ -7895,26 +7895,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_auto__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B3" s="24" t="str">
-        <f>IF(OR(項目!C8="数式",項目!C8="主従関係",項目!C8="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C8="数式",Field!C8="主従関係",Field!C8="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C3" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D3" s="24" t="str">
-        <f>項目!B8</f>
+        <f>Field!B8</f>
         <v>test_url__c</v>
       </c>
       <c r="E3" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F3" s="60">
-        <f>項目!AW8</f>
+        <f>Field!AW8</f>
         <v>0</v>
       </c>
       <c r="G3" s="60" t="str">
@@ -7922,26 +7922,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_url__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B4" s="24" t="str">
-        <f>IF(OR(項目!C9="数式",項目!C9="主従関係",項目!C9="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C9="数式",Field!C9="主従関係",Field!C9="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C4" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D4" s="24" t="str">
-        <f>項目!B9</f>
+        <f>Field!B9</f>
         <v>test_mail__c</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F4" s="60">
-        <f>項目!AW9</f>
+        <f>Field!AW9</f>
         <v>0</v>
       </c>
       <c r="G4" s="60" t="str">
@@ -7949,26 +7949,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_mail__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B5" s="24" t="str">
-        <f>IF(OR(項目!C10="数式",項目!C10="主従関係",項目!C10="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C10="数式",Field!C10="主従関係",Field!C10="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D5" s="24" t="str">
-        <f>項目!B10</f>
+        <f>Field!B10</f>
         <v>test_checkbox_true__c</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F5" s="60">
-        <f>項目!AW10</f>
+        <f>Field!AW10</f>
         <v>0</v>
       </c>
       <c r="G5" s="60" t="str">
@@ -7976,26 +7976,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_checkbox_true__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B6" s="24" t="str">
-        <f>IF(OR(項目!C11="数式",項目!C11="主従関係",項目!C11="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C11="数式",Field!C11="主従関係",Field!C11="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D6" s="24" t="str">
-        <f>項目!B11</f>
+        <f>Field!B11</f>
         <v>test_checkbox_false__c</v>
       </c>
       <c r="E6" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F6" s="60">
-        <f>項目!AW11</f>
+        <f>Field!AW11</f>
         <v>0</v>
       </c>
       <c r="G6" s="60" t="str">
@@ -8003,26 +8003,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_checkbox_false__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B7" s="24" t="str">
-        <f>IF(OR(項目!C12="数式",項目!C12="主従関係",項目!C12="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C12="数式",Field!C12="主従関係",Field!C12="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C7" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D7" s="24" t="str">
-        <f>項目!B12</f>
+        <f>Field!B12</f>
         <v>test_text__c</v>
       </c>
       <c r="E7" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F7" s="60">
-        <f>項目!AW12</f>
+        <f>Field!AW12</f>
         <v>0</v>
       </c>
       <c r="G7" s="60" t="str">
@@ -8030,26 +8030,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_text__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B8" s="24" t="str">
-        <f>IF(OR(項目!C13="数式",項目!C13="主従関係",項目!C13="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C13="数式",Field!C13="主従関係",Field!C13="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C8" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D8" s="24" t="str">
-        <f>項目!B13</f>
+        <f>Field!B13</f>
         <v>test_text_init__c</v>
       </c>
       <c r="E8" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F8" s="60">
-        <f>項目!AW13</f>
+        <f>Field!AW13</f>
         <v>0</v>
       </c>
       <c r="G8" s="60" t="str">
@@ -8057,26 +8057,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_text_init__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B9" s="24" t="str">
-        <f>IF(OR(項目!C14="数式",項目!C14="主従関係",項目!C14="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C14="数式",Field!C14="主従関係",Field!C14="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C9" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D9" s="24" t="str">
-        <f>項目!B14</f>
+        <f>Field!B14</f>
         <v>test_textarea__c</v>
       </c>
       <c r="E9" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F9" s="60">
-        <f>項目!AW14</f>
+        <f>Field!AW14</f>
         <v>0</v>
       </c>
       <c r="G9" s="60" t="str">
@@ -8084,26 +8084,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_textarea__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B10" s="24" t="str">
-        <f>IF(OR(項目!C15="数式",項目!C15="主従関係",項目!C15="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C15="数式",Field!C15="主従関係",Field!C15="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C10" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D10" s="24" t="str">
-        <f>項目!B15</f>
+        <f>Field!B15</f>
         <v>test_html__c</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F10" s="60">
-        <f>項目!AW15</f>
+        <f>Field!AW15</f>
         <v>0</v>
       </c>
       <c r="G10" s="60" t="str">
@@ -8111,26 +8111,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_html__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B11" s="24" t="str">
-        <f>IF(OR(項目!C16="数式",項目!C16="主従関係",項目!C16="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C16="数式",Field!C16="主従関係",Field!C16="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C11" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D11" s="24" t="str">
-        <f>項目!B16</f>
+        <f>Field!B16</f>
         <v>test_longtext__c</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F11" s="60">
-        <f>項目!AW16</f>
+        <f>Field!AW16</f>
         <v>0</v>
       </c>
       <c r="G11" s="60" t="str">
@@ -8138,26 +8138,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_longtext__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B12" s="24" t="str">
-        <f>IF(OR(項目!C17="数式",項目!C17="主従関係",項目!C17="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C17="数式",Field!C17="主従関係",Field!C17="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C12" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D12" s="24" t="str">
-        <f>項目!B17</f>
+        <f>Field!B17</f>
         <v>test_percent__c</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F12" s="60">
-        <f>項目!AW17</f>
+        <f>Field!AW17</f>
         <v>0</v>
       </c>
       <c r="G12" s="60" t="str">
@@ -8165,26 +8165,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_percent__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B13" s="24" t="str">
-        <f>IF(OR(項目!C18="数式",項目!C18="主従関係",項目!C18="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C18="数式",Field!C18="主従関係",Field!C18="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C13" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D13" s="24" t="str">
-        <f>項目!B18</f>
+        <f>Field!B18</f>
         <v>test_currency__c</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F13" s="60">
-        <f>項目!AW18</f>
+        <f>Field!AW18</f>
         <v>0</v>
       </c>
       <c r="G13" s="60" t="str">
@@ -8192,26 +8192,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_currency__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B14" s="24" t="str">
-        <f>IF(OR(項目!C19="数式",項目!C19="主従関係",項目!C19="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C19="数式",Field!C19="主従関係",Field!C19="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C14" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D14" s="24" t="str">
-        <f>項目!B19</f>
+        <f>Field!B19</f>
         <v>test_num__c</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F14" s="60">
-        <f>項目!AW19</f>
+        <f>Field!AW19</f>
         <v>0</v>
       </c>
       <c r="G14" s="60" t="str">
@@ -8219,26 +8219,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_num__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B15" s="24" t="str">
-        <f>IF(OR(項目!C20="数式",項目!C20="主従関係",項目!C20="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C20="数式",Field!C20="主従関係",Field!C20="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C15" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D15" s="24" t="str">
-        <f>項目!B20</f>
+        <f>Field!B20</f>
         <v>test_select__c</v>
       </c>
       <c r="E15" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F15" s="60">
-        <f>項目!AW20</f>
+        <f>Field!AW20</f>
         <v>0</v>
       </c>
       <c r="G15" s="60" t="str">
@@ -8246,26 +8246,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_select__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B16" s="24" t="str">
-        <f>IF(OR(項目!C22="数式",項目!C22="主従関係",項目!C22="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C22="数式",Field!C22="主従関係",Field!C22="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C16" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D16" s="24" t="str">
-        <f>項目!B22</f>
+        <f>Field!B22</f>
         <v>test_select_control__c</v>
       </c>
       <c r="E16" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F16" s="60">
-        <f>項目!AW22</f>
+        <f>Field!AW22</f>
         <v>0</v>
       </c>
       <c r="G16" s="60" t="str">
@@ -8273,26 +8273,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_select_control__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B17" s="24" t="str">
-        <f>IF(OR(項目!C23="数式",項目!C23="主従関係",項目!C23="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C23="数式",Field!C23="主従関係",Field!C23="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C17" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D17" s="24" t="str">
-        <f>項目!B23</f>
+        <f>Field!B23</f>
         <v>test_multiselect__c</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F17" s="60">
-        <f>項目!AW23</f>
+        <f>Field!AW23</f>
         <v>0</v>
       </c>
       <c r="G17" s="60" t="str">
@@ -8300,26 +8300,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_multiselect__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A18" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B18" s="24" t="str">
-        <f>IF(OR(項目!C24="数式",項目!C24="主従関係",項目!C24="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C24="数式",Field!C24="主従関係",Field!C24="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C18" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D18" s="24" t="str">
-        <f>項目!B24</f>
+        <f>Field!B24</f>
         <v>test_geo__c</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F18" s="60">
-        <f>項目!AW24</f>
+        <f>Field!AW24</f>
         <v>0</v>
       </c>
       <c r="G18" s="60" t="str">
@@ -8327,26 +8327,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_geo__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B19" s="24" t="str">
-        <f>IF(OR(項目!C25="数式",項目!C25="主従関係",項目!C25="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C25="数式",Field!C25="主従関係",Field!C25="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C19" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D19" s="24" t="str">
-        <f>項目!B25</f>
+        <f>Field!B25</f>
         <v>test_phone__c</v>
       </c>
       <c r="E19" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F19" s="60">
-        <f>項目!AW25</f>
+        <f>Field!AW25</f>
         <v>0</v>
       </c>
       <c r="G19" s="60" t="str">
@@ -8354,26 +8354,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_phone__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B20" s="24" t="str">
-        <f>IF(OR(項目!C26="数式",項目!C26="主従関係",項目!C26="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C26="数式",Field!C26="主従関係",Field!C26="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C20" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D20" s="24" t="str">
-        <f>項目!B26</f>
+        <f>Field!B26</f>
         <v>test_date__c</v>
       </c>
       <c r="E20" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F20" s="60">
-        <f>項目!AW26</f>
+        <f>Field!AW26</f>
         <v>0</v>
       </c>
       <c r="G20" s="60" t="str">
@@ -8381,26 +8381,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_date__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B21" s="24" t="str">
-        <f>IF(OR(項目!C27="数式",項目!C27="主従関係",項目!C27="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C27="数式",Field!C27="主従関係",Field!C27="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C21" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D21" s="24" t="str">
-        <f>項目!B27</f>
+        <f>Field!B27</f>
         <v>test_datetime__c</v>
       </c>
       <c r="E21" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F21" s="60">
-        <f>項目!AW27</f>
+        <f>Field!AW27</f>
         <v>0</v>
       </c>
       <c r="G21" s="60" t="str">
@@ -8408,26 +8408,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_datetime__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A22" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B22" s="24" t="str">
-        <f>IF(OR(項目!C28="数式",項目!C28="主従関係",項目!C28="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C28="数式",Field!C28="主従関係",Field!C28="積み上げ集計"),"Readonly","Edit")</f>
         <v>Readonly</v>
       </c>
       <c r="C22" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D22" s="24" t="str">
-        <f>項目!B28</f>
+        <f>Field!B28</f>
         <v>test_formula_num__c</v>
       </c>
       <c r="E22" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F22" s="60" t="str">
-        <f>項目!AW28</f>
+        <f>Field!AW28</f>
         <v>数式</v>
       </c>
       <c r="G22" s="60" t="str">
@@ -8435,26 +8435,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Readonly&lt;/behavior&gt;&lt;field&gt;test_formula_num__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B23" s="24" t="str">
-        <f>IF(OR(項目!C29="数式",項目!C29="主従関係",項目!C29="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C29="数式",Field!C29="主従関係",Field!C29="積み上げ集計"),"Readonly","Edit")</f>
         <v>Readonly</v>
       </c>
       <c r="C23" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D23" s="24" t="str">
-        <f>項目!B29</f>
+        <f>Field!B29</f>
         <v>test_formula_percent__c</v>
       </c>
       <c r="E23" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F23" s="60" t="str">
-        <f>項目!AW29</f>
+        <f>Field!AW29</f>
         <v>数式</v>
       </c>
       <c r="G23" s="60" t="str">
@@ -8462,26 +8462,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Readonly&lt;/behavior&gt;&lt;field&gt;test_formula_percent__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B24" s="24" t="str">
-        <f>IF(OR(項目!C30="数式",項目!C30="主従関係",項目!C30="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C30="数式",Field!C30="主従関係",Field!C30="積み上げ集計"),"Readonly","Edit")</f>
         <v>Readonly</v>
       </c>
       <c r="C24" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D24" s="24" t="str">
-        <f>項目!B30</f>
+        <f>Field!B30</f>
         <v>test_formula_currency__c</v>
       </c>
       <c r="E24" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F24" s="60" t="str">
-        <f>項目!AW30</f>
+        <f>Field!AW30</f>
         <v>数式</v>
       </c>
       <c r="G24" s="60" t="str">
@@ -8489,26 +8489,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Readonly&lt;/behavior&gt;&lt;field&gt;test_formula_currency__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B25" s="24" t="str">
-        <f>IF(OR(項目!C31="数式",項目!C31="主従関係",項目!C31="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C31="数式",Field!C31="主従関係",Field!C31="積み上げ集計"),"Readonly","Edit")</f>
         <v>Readonly</v>
       </c>
       <c r="C25" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D25" s="24" t="str">
-        <f>項目!B31</f>
+        <f>Field!B31</f>
         <v>test_formula_checkbox__c</v>
       </c>
       <c r="E25" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F25" s="60" t="str">
-        <f>項目!AW31</f>
+        <f>Field!AW31</f>
         <v>数式</v>
       </c>
       <c r="G25" s="60" t="str">
@@ -8516,26 +8516,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Readonly&lt;/behavior&gt;&lt;field&gt;test_formula_checkbox__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B26" s="24" t="str">
-        <f>IF(OR(項目!C32="数式",項目!C32="主従関係",項目!C32="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C32="数式",Field!C32="主従関係",Field!C32="積み上げ集計"),"Readonly","Edit")</f>
         <v>Readonly</v>
       </c>
       <c r="C26" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D26" s="24" t="str">
-        <f>項目!B32</f>
+        <f>Field!B32</f>
         <v>test_formula_date__c</v>
       </c>
       <c r="E26" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F26" s="60" t="str">
-        <f>項目!AW32</f>
+        <f>Field!AW32</f>
         <v>数式</v>
       </c>
       <c r="G26" s="60" t="str">
@@ -8543,26 +8543,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Readonly&lt;/behavior&gt;&lt;field&gt;test_formula_date__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A27" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B27" s="24" t="str">
-        <f>IF(OR(項目!C33="数式",項目!C33="主従関係",項目!C33="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C33="数式",Field!C33="主従関係",Field!C33="積み上げ集計"),"Readonly","Edit")</f>
         <v>Readonly</v>
       </c>
       <c r="C27" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D27" s="24" t="str">
-        <f>項目!B33</f>
+        <f>Field!B33</f>
         <v>test_formula_datetime__c</v>
       </c>
       <c r="E27" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F27" s="60" t="str">
-        <f>項目!AW33</f>
+        <f>Field!AW33</f>
         <v>数式</v>
       </c>
       <c r="G27" s="60" t="str">
@@ -8570,26 +8570,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Readonly&lt;/behavior&gt;&lt;field&gt;test_formula_datetime__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B28" s="24" t="str">
-        <f>IF(OR(項目!C34="数式",項目!C34="主従関係",項目!C34="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C34="数式",Field!C34="主従関係",Field!C34="積み上げ集計"),"Readonly","Edit")</f>
         <v>Readonly</v>
       </c>
       <c r="C28" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D28" s="24" t="str">
-        <f>項目!B34</f>
+        <f>Field!B34</f>
         <v>test_formula_text__c</v>
       </c>
       <c r="E28" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F28" s="60" t="str">
-        <f>項目!AW34</f>
+        <f>Field!AW34</f>
         <v>数式</v>
       </c>
       <c r="G28" s="60" t="str">
@@ -8597,26 +8597,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Readonly&lt;/behavior&gt;&lt;field&gt;test_formula_text__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A29" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B29" s="24" t="str">
-        <f>IF(OR(項目!C35="数式",項目!C35="主従関係",項目!C35="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C35="数式",Field!C35="主従関係",Field!C35="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C29" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D29" s="24" t="str">
-        <f>項目!B35</f>
+        <f>Field!B35</f>
         <v>test_lookup__c</v>
       </c>
       <c r="E29" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F29" s="60">
-        <f>項目!AW35</f>
+        <f>Field!AW35</f>
         <v>0</v>
       </c>
       <c r="G29" s="60" t="str">
@@ -8624,26 +8624,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;test_lookup__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B30" s="24" t="str">
-        <f>IF(OR(項目!C36="数式",項目!C36="主従関係",項目!C36="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C36="数式",Field!C36="主従関係",Field!C36="積み上げ集計"),"Readonly","Edit")</f>
         <v>Readonly</v>
       </c>
       <c r="C30" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D30" s="24" t="str">
-        <f>項目!B36</f>
+        <f>Field!B36</f>
         <v>test_master__c</v>
       </c>
       <c r="E30" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F30" s="60">
-        <f>項目!AW36</f>
+        <f>Field!AW36</f>
         <v>0</v>
       </c>
       <c r="G30" s="60" t="str">
@@ -8651,26 +8651,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Readonly&lt;/behavior&gt;&lt;field&gt;test_master__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A31" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B31" s="24" t="str">
-        <f>IF(OR(項目!C37="数式",項目!C37="主従関係",項目!C37="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C37="数式",Field!C37="主従関係",Field!C37="積み上げ集計"),"Readonly","Edit")</f>
         <v>Readonly</v>
       </c>
       <c r="C31" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D31" s="24" t="str">
-        <f>項目!B37</f>
+        <f>Field!B37</f>
         <v>test_summary_count__c</v>
       </c>
       <c r="E31" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F31" s="60">
-        <f>項目!AW37</f>
+        <f>Field!AW37</f>
         <v>0</v>
       </c>
       <c r="G31" s="60" t="str">
@@ -8678,26 +8678,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Readonly&lt;/behavior&gt;&lt;field&gt;test_summary_count__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A32" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B32" s="24" t="str">
-        <f>IF(OR(項目!C38="数式",項目!C38="主従関係",項目!C38="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C38="数式",Field!C38="主従関係",Field!C38="積み上げ集計"),"Readonly","Edit")</f>
         <v>Readonly</v>
       </c>
       <c r="C32" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D32" s="24" t="str">
-        <f>項目!B38</f>
+        <f>Field!B38</f>
         <v>test_summary_sum__c</v>
       </c>
       <c r="E32" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F32" s="60">
-        <f>項目!AW38</f>
+        <f>Field!AW38</f>
         <v>0</v>
       </c>
       <c r="G32" s="60" t="str">
@@ -8705,26 +8705,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Readonly&lt;/behavior&gt;&lt;field&gt;test_summary_sum__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A33" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B33" s="24" t="str">
-        <f>IF(OR(項目!C39="数式",項目!C39="主従関係",項目!C39="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C39="数式",Field!C39="主従関係",Field!C39="積み上げ集計"),"Readonly","Edit")</f>
         <v>Readonly</v>
       </c>
       <c r="C33" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D33" s="24" t="str">
-        <f>項目!B39</f>
+        <f>Field!B39</f>
         <v>test_summary_max__c</v>
       </c>
       <c r="E33" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F33" s="60">
-        <f>項目!AW39</f>
+        <f>Field!AW39</f>
         <v>0</v>
       </c>
       <c r="G33" s="60" t="str">
@@ -8732,26 +8732,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Readonly&lt;/behavior&gt;&lt;field&gt;test_summary_max__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A34" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B34" s="24" t="str">
-        <f>IF(OR(項目!C40="数式",項目!C40="主従関係",項目!C40="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C40="数式",Field!C40="主従関係",Field!C40="積み上げ集計"),"Readonly","Edit")</f>
         <v>Readonly</v>
       </c>
       <c r="C34" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D34" s="24" t="str">
-        <f>項目!B40</f>
+        <f>Field!B40</f>
         <v>test_summary_min__c</v>
       </c>
       <c r="E34" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F34" s="60">
-        <f>項目!AW40</f>
+        <f>Field!AW40</f>
         <v>0</v>
       </c>
       <c r="G34" s="60" t="str">
@@ -8759,26 +8759,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Readonly&lt;/behavior&gt;&lt;field&gt;test_summary_min__c&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A35" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B35" s="24" t="str">
-        <f>IF(OR(項目!C41="数式",項目!C41="主従関係",項目!C41="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C41="数式",Field!C41="主従関係",Field!C41="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C35" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D35" s="24">
-        <f>項目!B41</f>
+        <f>Field!B41</f>
         <v>0</v>
       </c>
       <c r="E35" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F35" s="60">
-        <f>項目!AW41</f>
+        <f>Field!AW41</f>
         <v>0</v>
       </c>
       <c r="G35" s="60" t="str">
@@ -8786,26 +8786,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A36" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B36" s="24" t="str">
-        <f>IF(OR(項目!C42="数式",項目!C42="主従関係",項目!C42="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C42="数式",Field!C42="主従関係",Field!C42="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C36" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D36" s="24">
-        <f>項目!B42</f>
+        <f>Field!B42</f>
         <v>0</v>
       </c>
       <c r="E36" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F36" s="60">
-        <f>項目!AW42</f>
+        <f>Field!AW42</f>
         <v>0</v>
       </c>
       <c r="G36" s="60" t="str">
@@ -8813,26 +8813,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A37" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B37" s="24" t="str">
-        <f>IF(OR(項目!C43="数式",項目!C43="主従関係",項目!C43="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C43="数式",Field!C43="主従関係",Field!C43="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C37" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D37" s="24">
-        <f>項目!B43</f>
+        <f>Field!B43</f>
         <v>0</v>
       </c>
       <c r="E37" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F37" s="60">
-        <f>項目!AW43</f>
+        <f>Field!AW43</f>
         <v>0</v>
       </c>
       <c r="G37" s="60" t="str">
@@ -8840,26 +8840,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A38" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B38" s="24" t="str">
-        <f>IF(OR(項目!C44="数式",項目!C44="主従関係",項目!C44="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C44="数式",Field!C44="主従関係",Field!C44="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C38" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D38" s="24" t="str">
-        <f>項目!B44</f>
+        <f>Field!B44</f>
         <v>行を増やすときは上の行をコピーする</v>
       </c>
       <c r="E38" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F38" s="60">
-        <f>項目!AW44</f>
+        <f>Field!AW44</f>
         <v>0</v>
       </c>
       <c r="G38" s="60" t="str">
@@ -8867,26 +8867,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;行を増やすときは上の行をコピーする&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A39" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B39" s="24" t="str">
-        <f>IF(OR(項目!C45="数式",項目!C45="主従関係",項目!C45="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C45="数式",Field!C45="主従関係",Field!C45="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C39" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D39" s="24">
-        <f>項目!B45</f>
+        <f>Field!B45</f>
         <v>0</v>
       </c>
       <c r="E39" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F39" s="60">
-        <f>項目!AW45</f>
+        <f>Field!AW45</f>
         <v>0</v>
       </c>
       <c r="G39" s="60" t="str">
@@ -8894,26 +8894,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A40" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B40" s="24" t="str">
-        <f>IF(OR(項目!C46="数式",項目!C46="主従関係",項目!C46="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C46="数式",Field!C46="主従関係",Field!C46="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C40" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D40" s="24">
-        <f>項目!B46</f>
+        <f>Field!B46</f>
         <v>0</v>
       </c>
       <c r="E40" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F40" s="60">
-        <f>項目!AW46</f>
+        <f>Field!AW46</f>
         <v>0</v>
       </c>
       <c r="G40" s="60" t="str">
@@ -8921,26 +8921,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A41" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B41" s="24" t="str">
-        <f>IF(OR(項目!C47="数式",項目!C47="主従関係",項目!C47="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C47="数式",Field!C47="主従関係",Field!C47="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C41" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D41" s="24">
-        <f>項目!B47</f>
+        <f>Field!B47</f>
         <v>0</v>
       </c>
       <c r="E41" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F41" s="60">
-        <f>項目!AW47</f>
+        <f>Field!AW47</f>
         <v>0</v>
       </c>
       <c r="G41" s="60" t="str">
@@ -8948,26 +8948,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A42" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B42" s="24" t="str">
-        <f>IF(OR(項目!C48="数式",項目!C48="主従関係",項目!C48="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C48="数式",Field!C48="主従関係",Field!C48="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C42" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D42" s="24">
-        <f>項目!B48</f>
+        <f>Field!B48</f>
         <v>0</v>
       </c>
       <c r="E42" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F42" s="60">
-        <f>項目!AW48</f>
+        <f>Field!AW48</f>
         <v>0</v>
       </c>
       <c r="G42" s="60" t="str">
@@ -8975,26 +8975,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A43" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B43" s="24" t="str">
-        <f>IF(OR(項目!C49="数式",項目!C49="主従関係",項目!C49="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C49="数式",Field!C49="主従関係",Field!C49="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C43" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D43" s="24">
-        <f>項目!B49</f>
+        <f>Field!B49</f>
         <v>0</v>
       </c>
       <c r="E43" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F43" s="60">
-        <f>項目!AW49</f>
+        <f>Field!AW49</f>
         <v>0</v>
       </c>
       <c r="G43" s="60" t="str">
@@ -9002,26 +9002,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A44" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B44" s="24" t="str">
-        <f>IF(OR(項目!C50="数式",項目!C50="主従関係",項目!C50="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C50="数式",Field!C50="主従関係",Field!C50="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C44" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D44" s="24">
-        <f>項目!B50</f>
+        <f>Field!B50</f>
         <v>0</v>
       </c>
       <c r="E44" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F44" s="60">
-        <f>項目!AW50</f>
+        <f>Field!AW50</f>
         <v>0</v>
       </c>
       <c r="G44" s="60" t="str">
@@ -9029,26 +9029,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A45" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B45" s="24" t="str">
-        <f>IF(OR(項目!C51="数式",項目!C51="主従関係",項目!C51="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C51="数式",Field!C51="主従関係",Field!C51="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C45" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D45" s="24">
-        <f>項目!B51</f>
+        <f>Field!B51</f>
         <v>0</v>
       </c>
       <c r="E45" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F45" s="60">
-        <f>項目!AW51</f>
+        <f>Field!AW51</f>
         <v>0</v>
       </c>
       <c r="G45" s="60" t="str">
@@ -9056,26 +9056,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A46" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B46" s="24" t="str">
-        <f>IF(OR(項目!C52="数式",項目!C52="主従関係",項目!C52="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C52="数式",Field!C52="主従関係",Field!C52="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C46" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D46" s="24">
-        <f>項目!B52</f>
+        <f>Field!B52</f>
         <v>0</v>
       </c>
       <c r="E46" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F46" s="60">
-        <f>項目!AW52</f>
+        <f>Field!AW52</f>
         <v>0</v>
       </c>
       <c r="G46" s="60" t="str">
@@ -9083,26 +9083,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A47" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B47" s="24" t="str">
-        <f>IF(OR(項目!C53="数式",項目!C53="主従関係",項目!C53="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C53="数式",Field!C53="主従関係",Field!C53="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C47" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D47" s="24">
-        <f>項目!B53</f>
+        <f>Field!B53</f>
         <v>0</v>
       </c>
       <c r="E47" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F47" s="60">
-        <f>項目!AW53</f>
+        <f>Field!AW53</f>
         <v>0</v>
       </c>
       <c r="G47" s="60" t="str">
@@ -9110,26 +9110,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A48" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B48" s="24" t="str">
-        <f>IF(OR(項目!C54="数式",項目!C54="主従関係",項目!C54="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C54="数式",Field!C54="主従関係",Field!C54="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C48" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D48" s="24">
-        <f>項目!B54</f>
+        <f>Field!B54</f>
         <v>0</v>
       </c>
       <c r="E48" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F48" s="60">
-        <f>項目!AW54</f>
+        <f>Field!AW54</f>
         <v>0</v>
       </c>
       <c r="G48" s="60" t="str">
@@ -9137,26 +9137,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A49" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B49" s="24" t="str">
-        <f>IF(OR(項目!C55="数式",項目!C55="主従関係",項目!C55="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C55="数式",Field!C55="主従関係",Field!C55="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C49" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D49" s="24">
-        <f>項目!B55</f>
+        <f>Field!B55</f>
         <v>0</v>
       </c>
       <c r="E49" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F49" s="60">
-        <f>項目!AW55</f>
+        <f>Field!AW55</f>
         <v>0</v>
       </c>
       <c r="G49" s="60" t="str">
@@ -9164,26 +9164,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A50" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B50" s="24" t="str">
-        <f>IF(OR(項目!C56="数式",項目!C56="主従関係",項目!C56="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C56="数式",Field!C56="主従関係",Field!C56="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C50" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D50" s="24">
-        <f>項目!B56</f>
+        <f>Field!B56</f>
         <v>0</v>
       </c>
       <c r="E50" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F50" s="60">
-        <f>項目!AW56</f>
+        <f>Field!AW56</f>
         <v>0</v>
       </c>
       <c r="G50" s="60" t="str">
@@ -9191,26 +9191,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A51" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B51" s="24" t="str">
-        <f>IF(OR(項目!C57="数式",項目!C57="主従関係",項目!C57="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C57="数式",Field!C57="主従関係",Field!C57="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C51" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D51" s="24">
-        <f>項目!B57</f>
+        <f>Field!B57</f>
         <v>0</v>
       </c>
       <c r="E51" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F51" s="60">
-        <f>項目!AW57</f>
+        <f>Field!AW57</f>
         <v>0</v>
       </c>
       <c r="G51" s="60" t="str">
@@ -9218,26 +9218,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A52" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B52" s="24" t="str">
-        <f>IF(OR(項目!C58="数式",項目!C58="主従関係",項目!C58="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C58="数式",Field!C58="主従関係",Field!C58="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C52" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D52" s="24">
-        <f>項目!B58</f>
+        <f>Field!B58</f>
         <v>0</v>
       </c>
       <c r="E52" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F52" s="60">
-        <f>項目!AW58</f>
+        <f>Field!AW58</f>
         <v>0</v>
       </c>
       <c r="G52" s="60" t="str">
@@ -9245,26 +9245,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A53" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B53" s="24" t="str">
-        <f>IF(OR(項目!C59="数式",項目!C59="主従関係",項目!C59="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C59="数式",Field!C59="主従関係",Field!C59="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C53" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D53" s="24">
-        <f>項目!B59</f>
+        <f>Field!B59</f>
         <v>0</v>
       </c>
       <c r="E53" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F53" s="60">
-        <f>項目!AW59</f>
+        <f>Field!AW59</f>
         <v>0</v>
       </c>
       <c r="G53" s="60" t="str">
@@ -9272,26 +9272,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A54" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B54" s="24" t="str">
-        <f>IF(OR(項目!C60="数式",項目!C60="主従関係",項目!C60="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C60="数式",Field!C60="主従関係",Field!C60="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C54" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D54" s="24">
-        <f>項目!B60</f>
+        <f>Field!B60</f>
         <v>0</v>
       </c>
       <c r="E54" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F54" s="60">
-        <f>項目!AW60</f>
+        <f>Field!AW60</f>
         <v>0</v>
       </c>
       <c r="G54" s="60" t="str">
@@ -9299,26 +9299,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A55" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B55" s="24" t="str">
-        <f>IF(OR(項目!C61="数式",項目!C61="主従関係",項目!C61="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C61="数式",Field!C61="主従関係",Field!C61="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C55" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D55" s="24">
-        <f>項目!B61</f>
+        <f>Field!B61</f>
         <v>0</v>
       </c>
       <c r="E55" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F55" s="60">
-        <f>項目!AW61</f>
+        <f>Field!AW61</f>
         <v>0</v>
       </c>
       <c r="G55" s="60" t="str">
@@ -9326,26 +9326,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A56" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B56" s="24" t="str">
-        <f>IF(OR(項目!C62="数式",項目!C62="主従関係",項目!C62="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C62="数式",Field!C62="主従関係",Field!C62="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C56" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D56" s="24">
-        <f>項目!B62</f>
+        <f>Field!B62</f>
         <v>0</v>
       </c>
       <c r="E56" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F56" s="60">
-        <f>項目!AW62</f>
+        <f>Field!AW62</f>
         <v>0</v>
       </c>
       <c r="G56" s="60" t="str">
@@ -9353,26 +9353,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A57" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B57" s="24" t="str">
-        <f>IF(OR(項目!C63="数式",項目!C63="主従関係",項目!C63="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C63="数式",Field!C63="主従関係",Field!C63="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C57" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D57" s="24">
-        <f>項目!B63</f>
+        <f>Field!B63</f>
         <v>0</v>
       </c>
       <c r="E57" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F57" s="60">
-        <f>項目!AW63</f>
+        <f>Field!AW63</f>
         <v>0</v>
       </c>
       <c r="G57" s="60" t="str">
@@ -9380,26 +9380,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A58" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B58" s="24" t="str">
-        <f>IF(OR(項目!C64="数式",項目!C64="主従関係",項目!C64="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C64="数式",Field!C64="主従関係",Field!C64="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C58" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D58" s="24">
-        <f>項目!B64</f>
+        <f>Field!B64</f>
         <v>0</v>
       </c>
       <c r="E58" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F58" s="60">
-        <f>項目!AW64</f>
+        <f>Field!AW64</f>
         <v>0</v>
       </c>
       <c r="G58" s="60" t="str">
@@ -9407,26 +9407,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A59" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B59" s="24" t="str">
-        <f>IF(OR(項目!C65="数式",項目!C65="主従関係",項目!C65="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C65="数式",Field!C65="主従関係",Field!C65="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C59" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D59" s="24">
-        <f>項目!B65</f>
+        <f>Field!B65</f>
         <v>0</v>
       </c>
       <c r="E59" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F59" s="60">
-        <f>項目!AW65</f>
+        <f>Field!AW65</f>
         <v>0</v>
       </c>
       <c r="G59" s="60" t="str">
@@ -9434,26 +9434,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A60" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B60" s="24" t="str">
-        <f>IF(OR(項目!C66="数式",項目!C66="主従関係",項目!C66="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C66="数式",Field!C66="主従関係",Field!C66="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C60" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D60" s="24">
-        <f>項目!B66</f>
+        <f>Field!B66</f>
         <v>0</v>
       </c>
       <c r="E60" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F60" s="60">
-        <f>項目!AW66</f>
+        <f>Field!AW66</f>
         <v>0</v>
       </c>
       <c r="G60" s="60" t="str">
@@ -9461,26 +9461,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A61" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B61" s="24" t="str">
-        <f>IF(OR(項目!C67="数式",項目!C67="主従関係",項目!C67="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C67="数式",Field!C67="主従関係",Field!C67="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C61" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D61" s="24">
-        <f>項目!B67</f>
+        <f>Field!B67</f>
         <v>0</v>
       </c>
       <c r="E61" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F61" s="60">
-        <f>項目!AW67</f>
+        <f>Field!AW67</f>
         <v>0</v>
       </c>
       <c r="G61" s="60" t="str">
@@ -9488,26 +9488,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A62" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B62" s="24" t="str">
-        <f>IF(OR(項目!C68="数式",項目!C68="主従関係",項目!C68="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C68="数式",Field!C68="主従関係",Field!C68="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C62" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D62" s="24">
-        <f>項目!B68</f>
+        <f>Field!B68</f>
         <v>0</v>
       </c>
       <c r="E62" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F62" s="60">
-        <f>項目!AW68</f>
+        <f>Field!AW68</f>
         <v>0</v>
       </c>
       <c r="G62" s="60" t="str">
@@ -9515,26 +9515,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A63" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B63" s="24" t="str">
-        <f>IF(OR(項目!C69="数式",項目!C69="主従関係",項目!C69="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C69="数式",Field!C69="主従関係",Field!C69="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C63" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D63" s="24">
-        <f>項目!B69</f>
+        <f>Field!B69</f>
         <v>0</v>
       </c>
       <c r="E63" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F63" s="60">
-        <f>項目!AW69</f>
+        <f>Field!AW69</f>
         <v>0</v>
       </c>
       <c r="G63" s="60" t="str">
@@ -9542,26 +9542,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A64" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B64" s="24" t="str">
-        <f>IF(OR(項目!C70="数式",項目!C70="主従関係",項目!C70="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C70="数式",Field!C70="主従関係",Field!C70="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C64" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D64" s="24">
-        <f>項目!B70</f>
+        <f>Field!B70</f>
         <v>0</v>
       </c>
       <c r="E64" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F64" s="60">
-        <f>項目!AW70</f>
+        <f>Field!AW70</f>
         <v>0</v>
       </c>
       <c r="G64" s="60" t="str">
@@ -9569,26 +9569,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A65" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B65" s="24" t="str">
-        <f>IF(OR(項目!C71="数式",項目!C71="主従関係",項目!C71="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C71="数式",Field!C71="主従関係",Field!C71="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C65" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D65" s="24">
-        <f>項目!B71</f>
+        <f>Field!B71</f>
         <v>0</v>
       </c>
       <c r="E65" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F65" s="60">
-        <f>項目!AW71</f>
+        <f>Field!AW71</f>
         <v>0</v>
       </c>
       <c r="G65" s="60" t="str">
@@ -9596,26 +9596,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A66" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B66" s="24" t="str">
-        <f>IF(OR(項目!C72="数式",項目!C72="主従関係",項目!C72="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C72="数式",Field!C72="主従関係",Field!C72="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C66" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D66" s="24">
-        <f>項目!B72</f>
+        <f>Field!B72</f>
         <v>0</v>
       </c>
       <c r="E66" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F66" s="60">
-        <f>項目!AW72</f>
+        <f>Field!AW72</f>
         <v>0</v>
       </c>
       <c r="G66" s="60" t="str">
@@ -9623,26 +9623,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A67" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B67" s="24" t="str">
-        <f>IF(OR(項目!C73="数式",項目!C73="主従関係",項目!C73="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C73="数式",Field!C73="主従関係",Field!C73="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C67" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D67" s="24">
-        <f>項目!B73</f>
+        <f>Field!B73</f>
         <v>0</v>
       </c>
       <c r="E67" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F67" s="60">
-        <f>項目!AW73</f>
+        <f>Field!AW73</f>
         <v>0</v>
       </c>
       <c r="G67" s="60" t="str">
@@ -9650,26 +9650,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A68" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B68" s="24" t="str">
-        <f>IF(OR(項目!C74="数式",項目!C74="主従関係",項目!C74="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C74="数式",Field!C74="主従関係",Field!C74="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C68" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D68" s="24">
-        <f>項目!B74</f>
+        <f>Field!B74</f>
         <v>0</v>
       </c>
       <c r="E68" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F68" s="60">
-        <f>項目!AW74</f>
+        <f>Field!AW74</f>
         <v>0</v>
       </c>
       <c r="G68" s="60" t="str">
@@ -9677,26 +9677,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A69" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B69" s="24" t="str">
-        <f>IF(OR(項目!C75="数式",項目!C75="主従関係",項目!C75="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C75="数式",Field!C75="主従関係",Field!C75="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C69" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D69" s="24">
-        <f>項目!B75</f>
+        <f>Field!B75</f>
         <v>0</v>
       </c>
       <c r="E69" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F69" s="60">
-        <f>項目!AW75</f>
+        <f>Field!AW75</f>
         <v>0</v>
       </c>
       <c r="G69" s="60" t="str">
@@ -9704,26 +9704,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A70" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B70" s="24" t="str">
-        <f>IF(OR(項目!C76="数式",項目!C76="主従関係",項目!C76="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C76="数式",Field!C76="主従関係",Field!C76="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C70" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D70" s="24">
-        <f>項目!B76</f>
+        <f>Field!B76</f>
         <v>0</v>
       </c>
       <c r="E70" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F70" s="60">
-        <f>項目!AW76</f>
+        <f>Field!AW76</f>
         <v>0</v>
       </c>
       <c r="G70" s="60" t="str">
@@ -9731,26 +9731,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A71" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B71" s="24" t="str">
-        <f>IF(OR(項目!C77="数式",項目!C77="主従関係",項目!C77="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C77="数式",Field!C77="主従関係",Field!C77="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C71" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D71" s="24">
-        <f>項目!B77</f>
+        <f>Field!B77</f>
         <v>0</v>
       </c>
       <c r="E71" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F71" s="60">
-        <f>項目!AW77</f>
+        <f>Field!AW77</f>
         <v>0</v>
       </c>
       <c r="G71" s="60" t="str">
@@ -9758,26 +9758,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A72" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B72" s="24" t="str">
-        <f>IF(OR(項目!C78="数式",項目!C78="主従関係",項目!C78="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C78="数式",Field!C78="主従関係",Field!C78="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C72" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D72" s="24">
-        <f>項目!B78</f>
+        <f>Field!B78</f>
         <v>0</v>
       </c>
       <c r="E72" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F72" s="60">
-        <f>項目!AW78</f>
+        <f>Field!AW78</f>
         <v>0</v>
       </c>
       <c r="G72" s="60" t="str">
@@ -9785,26 +9785,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A73" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B73" s="24" t="str">
-        <f>IF(OR(項目!C79="数式",項目!C79="主従関係",項目!C79="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C79="数式",Field!C79="主従関係",Field!C79="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C73" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D73" s="24">
-        <f>項目!B79</f>
+        <f>Field!B79</f>
         <v>0</v>
       </c>
       <c r="E73" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F73" s="60">
-        <f>項目!AW79</f>
+        <f>Field!AW79</f>
         <v>0</v>
       </c>
       <c r="G73" s="60" t="str">
@@ -9812,26 +9812,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A74" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B74" s="24" t="str">
-        <f>IF(OR(項目!C80="数式",項目!C80="主従関係",項目!C80="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C80="数式",Field!C80="主従関係",Field!C80="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C74" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D74" s="24">
-        <f>項目!B80</f>
+        <f>Field!B80</f>
         <v>0</v>
       </c>
       <c r="E74" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F74" s="60">
-        <f>項目!AW80</f>
+        <f>Field!AW80</f>
         <v>0</v>
       </c>
       <c r="G74" s="60" t="str">
@@ -9839,26 +9839,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A75" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B75" s="24" t="str">
-        <f>IF(OR(項目!C81="数式",項目!C81="主従関係",項目!C81="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C81="数式",Field!C81="主従関係",Field!C81="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C75" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D75" s="24">
-        <f>項目!B81</f>
+        <f>Field!B81</f>
         <v>0</v>
       </c>
       <c r="E75" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F75" s="60">
-        <f>項目!AW81</f>
+        <f>Field!AW81</f>
         <v>0</v>
       </c>
       <c r="G75" s="60" t="str">
@@ -9866,26 +9866,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A76" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B76" s="24" t="str">
-        <f>IF(OR(項目!C82="数式",項目!C82="主従関係",項目!C82="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C82="数式",Field!C82="主従関係",Field!C82="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C76" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D76" s="24">
-        <f>項目!B82</f>
+        <f>Field!B82</f>
         <v>0</v>
       </c>
       <c r="E76" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F76" s="60">
-        <f>項目!AW82</f>
+        <f>Field!AW82</f>
         <v>0</v>
       </c>
       <c r="G76" s="60" t="str">
@@ -9893,26 +9893,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A77" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="24" t="str">
-        <f>IF(OR(項目!C83="数式",項目!C83="主従関係",項目!C83="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C83="数式",Field!C83="主従関係",Field!C83="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C77" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D77" s="24">
-        <f>項目!B83</f>
+        <f>Field!B83</f>
         <v>0</v>
       </c>
       <c r="E77" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F77" s="60">
-        <f>項目!AW83</f>
+        <f>Field!AW83</f>
         <v>0</v>
       </c>
       <c r="G77" s="60" t="str">
@@ -9920,26 +9920,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A78" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B78" s="24" t="str">
-        <f>IF(OR(項目!C84="数式",項目!C84="主従関係",項目!C84="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C84="数式",Field!C84="主従関係",Field!C84="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C78" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D78" s="24">
-        <f>項目!B84</f>
+        <f>Field!B84</f>
         <v>0</v>
       </c>
       <c r="E78" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F78" s="60">
-        <f>項目!AW84</f>
+        <f>Field!AW84</f>
         <v>0</v>
       </c>
       <c r="G78" s="60" t="str">
@@ -9947,26 +9947,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A79" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B79" s="24" t="str">
-        <f>IF(OR(項目!C85="数式",項目!C85="主従関係",項目!C85="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C85="数式",Field!C85="主従関係",Field!C85="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C79" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D79" s="24">
-        <f>項目!B85</f>
+        <f>Field!B85</f>
         <v>0</v>
       </c>
       <c r="E79" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F79" s="60">
-        <f>項目!AW85</f>
+        <f>Field!AW85</f>
         <v>0</v>
       </c>
       <c r="G79" s="60" t="str">
@@ -9974,26 +9974,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A80" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B80" s="24" t="str">
-        <f>IF(OR(項目!C86="数式",項目!C86="主従関係",項目!C86="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C86="数式",Field!C86="主従関係",Field!C86="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C80" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D80" s="24">
-        <f>項目!B86</f>
+        <f>Field!B86</f>
         <v>0</v>
       </c>
       <c r="E80" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F80" s="60">
-        <f>項目!AW86</f>
+        <f>Field!AW86</f>
         <v>0</v>
       </c>
       <c r="G80" s="60" t="str">
@@ -10001,26 +10001,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A81" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B81" s="24" t="str">
-        <f>IF(OR(項目!C87="数式",項目!C87="主従関係",項目!C87="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C87="数式",Field!C87="主従関係",Field!C87="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C81" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D81" s="24">
-        <f>項目!B87</f>
+        <f>Field!B87</f>
         <v>0</v>
       </c>
       <c r="E81" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F81" s="60">
-        <f>項目!AW87</f>
+        <f>Field!AW87</f>
         <v>0</v>
       </c>
       <c r="G81" s="60" t="str">
@@ -10028,26 +10028,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A82" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B82" s="24" t="str">
-        <f>IF(OR(項目!C88="数式",項目!C88="主従関係",項目!C88="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C88="数式",Field!C88="主従関係",Field!C88="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C82" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D82" s="24">
-        <f>項目!B88</f>
+        <f>Field!B88</f>
         <v>0</v>
       </c>
       <c r="E82" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F82" s="60">
-        <f>項目!AW88</f>
+        <f>Field!AW88</f>
         <v>0</v>
       </c>
       <c r="G82" s="60" t="str">
@@ -10055,26 +10055,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A83" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B83" s="24" t="str">
-        <f>IF(OR(項目!C89="数式",項目!C89="主従関係",項目!C89="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C89="数式",Field!C89="主従関係",Field!C89="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C83" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D83" s="24">
-        <f>項目!B89</f>
+        <f>Field!B89</f>
         <v>0</v>
       </c>
       <c r="E83" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F83" s="60">
-        <f>項目!AW89</f>
+        <f>Field!AW89</f>
         <v>0</v>
       </c>
       <c r="G83" s="60" t="str">
@@ -10082,26 +10082,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A84" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B84" s="24" t="str">
-        <f>IF(OR(項目!C90="数式",項目!C90="主従関係",項目!C90="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C90="数式",Field!C90="主従関係",Field!C90="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C84" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D84" s="24">
-        <f>項目!B90</f>
+        <f>Field!B90</f>
         <v>0</v>
       </c>
       <c r="E84" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F84" s="60">
-        <f>項目!AW90</f>
+        <f>Field!AW90</f>
         <v>0</v>
       </c>
       <c r="G84" s="60" t="str">
@@ -10109,26 +10109,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A85" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B85" s="24" t="str">
-        <f>IF(OR(項目!C91="数式",項目!C91="主従関係",項目!C91="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C91="数式",Field!C91="主従関係",Field!C91="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C85" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D85" s="24">
-        <f>項目!B91</f>
+        <f>Field!B91</f>
         <v>0</v>
       </c>
       <c r="E85" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F85" s="60">
-        <f>項目!AW91</f>
+        <f>Field!AW91</f>
         <v>0</v>
       </c>
       <c r="G85" s="60" t="str">
@@ -10136,26 +10136,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A86" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B86" s="24" t="str">
-        <f>IF(OR(項目!C92="数式",項目!C92="主従関係",項目!C92="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C92="数式",Field!C92="主従関係",Field!C92="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C86" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D86" s="24">
-        <f>項目!B92</f>
+        <f>Field!B92</f>
         <v>0</v>
       </c>
       <c r="E86" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F86" s="60">
-        <f>項目!AW92</f>
+        <f>Field!AW92</f>
         <v>0</v>
       </c>
       <c r="G86" s="60" t="str">
@@ -10163,26 +10163,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A87" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B87" s="24" t="str">
-        <f>IF(OR(項目!C93="数式",項目!C93="主従関係",項目!C93="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C93="数式",Field!C93="主従関係",Field!C93="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C87" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D87" s="24">
-        <f>項目!B93</f>
+        <f>Field!B93</f>
         <v>0</v>
       </c>
       <c r="E87" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F87" s="60">
-        <f>項目!AW93</f>
+        <f>Field!AW93</f>
         <v>0</v>
       </c>
       <c r="G87" s="60" t="str">
@@ -10190,26 +10190,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A88" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B88" s="24" t="str">
-        <f>IF(OR(項目!C94="数式",項目!C94="主従関係",項目!C94="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C94="数式",Field!C94="主従関係",Field!C94="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C88" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D88" s="24">
-        <f>項目!B94</f>
+        <f>Field!B94</f>
         <v>0</v>
       </c>
       <c r="E88" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F88" s="60">
-        <f>項目!AW94</f>
+        <f>Field!AW94</f>
         <v>0</v>
       </c>
       <c r="G88" s="60" t="str">
@@ -10217,26 +10217,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A89" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B89" s="24" t="str">
-        <f>IF(OR(項目!C95="数式",項目!C95="主従関係",項目!C95="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C95="数式",Field!C95="主従関係",Field!C95="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C89" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D89" s="24">
-        <f>項目!B95</f>
+        <f>Field!B95</f>
         <v>0</v>
       </c>
       <c r="E89" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F89" s="60">
-        <f>項目!AW95</f>
+        <f>Field!AW95</f>
         <v>0</v>
       </c>
       <c r="G89" s="60" t="str">
@@ -10244,26 +10244,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A90" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B90" s="24" t="str">
-        <f>IF(OR(項目!C96="数式",項目!C96="主従関係",項目!C96="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C96="数式",Field!C96="主従関係",Field!C96="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C90" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D90" s="24">
-        <f>項目!B96</f>
+        <f>Field!B96</f>
         <v>0</v>
       </c>
       <c r="E90" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F90" s="60">
-        <f>項目!AW96</f>
+        <f>Field!AW96</f>
         <v>0</v>
       </c>
       <c r="G90" s="60" t="str">
@@ -10271,26 +10271,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A91" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B91" s="24" t="str">
-        <f>IF(OR(項目!C97="数式",項目!C97="主従関係",項目!C97="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C97="数式",Field!C97="主従関係",Field!C97="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C91" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D91" s="24">
-        <f>項目!B97</f>
+        <f>Field!B97</f>
         <v>0</v>
       </c>
       <c r="E91" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F91" s="60">
-        <f>項目!AW97</f>
+        <f>Field!AW97</f>
         <v>0</v>
       </c>
       <c r="G91" s="60" t="str">
@@ -10298,26 +10298,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A92" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B92" s="24" t="str">
-        <f>IF(OR(項目!C98="数式",項目!C98="主従関係",項目!C98="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C98="数式",Field!C98="主従関係",Field!C98="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C92" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D92" s="24">
-        <f>項目!B98</f>
+        <f>Field!B98</f>
         <v>0</v>
       </c>
       <c r="E92" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F92" s="60">
-        <f>項目!AW98</f>
+        <f>Field!AW98</f>
         <v>0</v>
       </c>
       <c r="G92" s="60" t="str">
@@ -10325,26 +10325,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A93" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B93" s="24" t="str">
-        <f>IF(OR(項目!C99="数式",項目!C99="主従関係",項目!C99="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C99="数式",Field!C99="主従関係",Field!C99="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C93" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D93" s="24">
-        <f>項目!B99</f>
+        <f>Field!B99</f>
         <v>0</v>
       </c>
       <c r="E93" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F93" s="60">
-        <f>項目!AW99</f>
+        <f>Field!AW99</f>
         <v>0</v>
       </c>
       <c r="G93" s="60" t="str">
@@ -10352,26 +10352,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A94" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B94" s="24" t="str">
-        <f>IF(OR(項目!C100="数式",項目!C100="主従関係",項目!C100="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C100="数式",Field!C100="主従関係",Field!C100="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C94" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D94" s="24">
-        <f>項目!B100</f>
+        <f>Field!B100</f>
         <v>0</v>
       </c>
       <c r="E94" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F94" s="60">
-        <f>項目!AW100</f>
+        <f>Field!AW100</f>
         <v>0</v>
       </c>
       <c r="G94" s="60" t="str">
@@ -10379,26 +10379,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A95" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B95" s="24" t="str">
-        <f>IF(OR(項目!C101="数式",項目!C101="主従関係",項目!C101="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C101="数式",Field!C101="主従関係",Field!C101="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C95" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D95" s="24">
-        <f>項目!B101</f>
+        <f>Field!B101</f>
         <v>0</v>
       </c>
       <c r="E95" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F95" s="60">
-        <f>項目!AW101</f>
+        <f>Field!AW101</f>
         <v>0</v>
       </c>
       <c r="G95" s="60" t="str">
@@ -10406,26 +10406,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A96" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B96" s="24" t="str">
-        <f>IF(OR(項目!C102="数式",項目!C102="主従関係",項目!C102="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C102="数式",Field!C102="主従関係",Field!C102="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C96" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D96" s="24">
-        <f>項目!B102</f>
+        <f>Field!B102</f>
         <v>0</v>
       </c>
       <c r="E96" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F96" s="60">
-        <f>項目!AW102</f>
+        <f>Field!AW102</f>
         <v>0</v>
       </c>
       <c r="G96" s="60" t="str">
@@ -10433,26 +10433,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A97" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B97" s="24" t="str">
-        <f>IF(OR(項目!C103="数式",項目!C103="主従関係",項目!C103="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C103="数式",Field!C103="主従関係",Field!C103="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C97" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D97" s="24">
-        <f>項目!B103</f>
+        <f>Field!B103</f>
         <v>0</v>
       </c>
       <c r="E97" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F97" s="60">
-        <f>項目!AW103</f>
+        <f>Field!AW103</f>
         <v>0</v>
       </c>
       <c r="G97" s="60" t="str">
@@ -10460,26 +10460,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A98" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B98" s="24" t="str">
-        <f>IF(OR(項目!C104="数式",項目!C104="主従関係",項目!C104="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C104="数式",Field!C104="主従関係",Field!C104="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C98" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D98" s="24">
-        <f>項目!B104</f>
+        <f>Field!B104</f>
         <v>0</v>
       </c>
       <c r="E98" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F98" s="60">
-        <f>項目!AW104</f>
+        <f>Field!AW104</f>
         <v>0</v>
       </c>
       <c r="G98" s="60" t="str">
@@ -10487,26 +10487,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A99" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B99" s="24" t="str">
-        <f>IF(OR(項目!C105="数式",項目!C105="主従関係",項目!C105="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C105="数式",Field!C105="主従関係",Field!C105="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C99" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D99" s="24">
-        <f>項目!B105</f>
+        <f>Field!B105</f>
         <v>0</v>
       </c>
       <c r="E99" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F99" s="60">
-        <f>項目!AW105</f>
+        <f>Field!AW105</f>
         <v>0</v>
       </c>
       <c r="G99" s="60" t="str">
@@ -10514,26 +10514,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A100" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B100" s="24" t="str">
-        <f>IF(OR(項目!C106="数式",項目!C106="主従関係",項目!C106="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C106="数式",Field!C106="主従関係",Field!C106="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C100" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D100" s="24">
-        <f>項目!B106</f>
+        <f>Field!B106</f>
         <v>0</v>
       </c>
       <c r="E100" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F100" s="60">
-        <f>項目!AW106</f>
+        <f>Field!AW106</f>
         <v>0</v>
       </c>
       <c r="G100" s="60" t="str">
@@ -10541,26 +10541,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A101" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B101" s="24" t="str">
-        <f>IF(OR(項目!C107="数式",項目!C107="主従関係",項目!C107="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C107="数式",Field!C107="主従関係",Field!C107="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C101" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D101" s="24">
-        <f>項目!B107</f>
+        <f>Field!B107</f>
         <v>0</v>
       </c>
       <c r="E101" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F101" s="60">
-        <f>項目!AW107</f>
+        <f>Field!AW107</f>
         <v>0</v>
       </c>
       <c r="G101" s="60" t="str">
@@ -10568,26 +10568,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A102" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B102" s="24" t="str">
-        <f>IF(OR(項目!C108="数式",項目!C108="主従関係",項目!C108="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C108="数式",Field!C108="主従関係",Field!C108="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C102" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D102" s="24">
-        <f>項目!B108</f>
+        <f>Field!B108</f>
         <v>0</v>
       </c>
       <c r="E102" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F102" s="60">
-        <f>項目!AW108</f>
+        <f>Field!AW108</f>
         <v>0</v>
       </c>
       <c r="G102" s="60" t="str">
@@ -10595,26 +10595,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A103" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B103" s="24" t="str">
-        <f>IF(OR(項目!C109="数式",項目!C109="主従関係",項目!C109="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C109="数式",Field!C109="主従関係",Field!C109="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C103" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D103" s="24">
-        <f>項目!B109</f>
+        <f>Field!B109</f>
         <v>0</v>
       </c>
       <c r="E103" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F103" s="60">
-        <f>項目!AW109</f>
+        <f>Field!AW109</f>
         <v>0</v>
       </c>
       <c r="G103" s="60" t="str">
@@ -10622,26 +10622,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A104" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B104" s="24" t="str">
-        <f>IF(OR(項目!C110="数式",項目!C110="主従関係",項目!C110="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C110="数式",Field!C110="主従関係",Field!C110="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C104" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D104" s="24">
-        <f>項目!B110</f>
+        <f>Field!B110</f>
         <v>0</v>
       </c>
       <c r="E104" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F104" s="60">
-        <f>項目!AW110</f>
+        <f>Field!AW110</f>
         <v>0</v>
       </c>
       <c r="G104" s="60" t="str">
@@ -10649,26 +10649,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A105" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B105" s="24" t="str">
-        <f>IF(OR(項目!C111="数式",項目!C111="主従関係",項目!C111="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C111="数式",Field!C111="主従関係",Field!C111="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C105" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D105" s="24">
-        <f>項目!B111</f>
+        <f>Field!B111</f>
         <v>0</v>
       </c>
       <c r="E105" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F105" s="60">
-        <f>項目!AW111</f>
+        <f>Field!AW111</f>
         <v>0</v>
       </c>
       <c r="G105" s="60" t="str">
@@ -10676,26 +10676,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A106" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B106" s="24" t="str">
-        <f>IF(OR(項目!C112="数式",項目!C112="主従関係",項目!C112="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C112="数式",Field!C112="主従関係",Field!C112="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C106" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D106" s="24">
-        <f>項目!B112</f>
+        <f>Field!B112</f>
         <v>0</v>
       </c>
       <c r="E106" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F106" s="60">
-        <f>項目!AW112</f>
+        <f>Field!AW112</f>
         <v>0</v>
       </c>
       <c r="G106" s="60" t="str">
@@ -10703,26 +10703,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A107" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B107" s="24" t="str">
-        <f>IF(OR(項目!C113="数式",項目!C113="主従関係",項目!C113="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C113="数式",Field!C113="主従関係",Field!C113="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C107" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D107" s="24">
-        <f>項目!B113</f>
+        <f>Field!B113</f>
         <v>0</v>
       </c>
       <c r="E107" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F107" s="60">
-        <f>項目!AW113</f>
+        <f>Field!AW113</f>
         <v>0</v>
       </c>
       <c r="G107" s="60" t="str">
@@ -10730,26 +10730,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A108" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B108" s="24" t="str">
-        <f>IF(OR(項目!C114="数式",項目!C114="主従関係",項目!C114="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C114="数式",Field!C114="主従関係",Field!C114="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C108" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D108" s="24">
-        <f>項目!B114</f>
+        <f>Field!B114</f>
         <v>0</v>
       </c>
       <c r="E108" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F108" s="60">
-        <f>項目!AW114</f>
+        <f>Field!AW114</f>
         <v>0</v>
       </c>
       <c r="G108" s="60" t="str">
@@ -10757,26 +10757,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A109" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B109" s="24" t="str">
-        <f>IF(OR(項目!C115="数式",項目!C115="主従関係",項目!C115="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C115="数式",Field!C115="主従関係",Field!C115="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C109" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D109" s="24">
-        <f>項目!B115</f>
+        <f>Field!B115</f>
         <v>0</v>
       </c>
       <c r="E109" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F109" s="60">
-        <f>項目!AW115</f>
+        <f>Field!AW115</f>
         <v>0</v>
       </c>
       <c r="G109" s="60" t="str">
@@ -10784,26 +10784,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A110" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B110" s="24" t="str">
-        <f>IF(OR(項目!C116="数式",項目!C116="主従関係",項目!C116="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C116="数式",Field!C116="主従関係",Field!C116="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C110" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D110" s="24">
-        <f>項目!B116</f>
+        <f>Field!B116</f>
         <v>0</v>
       </c>
       <c r="E110" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F110" s="60">
-        <f>項目!AW116</f>
+        <f>Field!AW116</f>
         <v>0</v>
       </c>
       <c r="G110" s="60" t="str">
@@ -10811,26 +10811,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A111" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B111" s="24" t="str">
-        <f>IF(OR(項目!C117="数式",項目!C117="主従関係",項目!C117="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C117="数式",Field!C117="主従関係",Field!C117="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C111" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D111" s="24">
-        <f>項目!B117</f>
+        <f>Field!B117</f>
         <v>0</v>
       </c>
       <c r="E111" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F111" s="60">
-        <f>項目!AW117</f>
+        <f>Field!AW117</f>
         <v>0</v>
       </c>
       <c r="G111" s="60" t="str">
@@ -10838,26 +10838,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A112" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B112" s="24" t="str">
-        <f>IF(OR(項目!C118="数式",項目!C118="主従関係",項目!C118="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C118="数式",Field!C118="主従関係",Field!C118="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C112" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D112" s="24">
-        <f>項目!B118</f>
+        <f>Field!B118</f>
         <v>0</v>
       </c>
       <c r="E112" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F112" s="60">
-        <f>項目!AW118</f>
+        <f>Field!AW118</f>
         <v>0</v>
       </c>
       <c r="G112" s="60" t="str">
@@ -10865,26 +10865,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A113" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B113" s="24" t="str">
-        <f>IF(OR(項目!C119="数式",項目!C119="主従関係",項目!C119="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C119="数式",Field!C119="主従関係",Field!C119="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C113" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D113" s="24">
-        <f>項目!B119</f>
+        <f>Field!B119</f>
         <v>0</v>
       </c>
       <c r="E113" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F113" s="60">
-        <f>項目!AW119</f>
+        <f>Field!AW119</f>
         <v>0</v>
       </c>
       <c r="G113" s="60" t="str">
@@ -10892,26 +10892,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A114" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B114" s="24" t="str">
-        <f>IF(OR(項目!C120="数式",項目!C120="主従関係",項目!C120="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C120="数式",Field!C120="主従関係",Field!C120="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C114" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D114" s="24">
-        <f>項目!B120</f>
+        <f>Field!B120</f>
         <v>0</v>
       </c>
       <c r="E114" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F114" s="60">
-        <f>項目!AW120</f>
+        <f>Field!AW120</f>
         <v>0</v>
       </c>
       <c r="G114" s="60" t="str">
@@ -10919,26 +10919,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A115" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B115" s="24" t="str">
-        <f>IF(OR(項目!C121="数式",項目!C121="主従関係",項目!C121="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C121="数式",Field!C121="主従関係",Field!C121="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C115" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D115" s="24">
-        <f>項目!B121</f>
+        <f>Field!B121</f>
         <v>0</v>
       </c>
       <c r="E115" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F115" s="60">
-        <f>項目!AW121</f>
+        <f>Field!AW121</f>
         <v>0</v>
       </c>
       <c r="G115" s="60" t="str">
@@ -10946,26 +10946,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A116" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B116" s="24" t="str">
-        <f>IF(OR(項目!C122="数式",項目!C122="主従関係",項目!C122="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C122="数式",Field!C122="主従関係",Field!C122="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C116" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D116" s="24">
-        <f>項目!B122</f>
+        <f>Field!B122</f>
         <v>0</v>
       </c>
       <c r="E116" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F116" s="60">
-        <f>項目!AW122</f>
+        <f>Field!AW122</f>
         <v>0</v>
       </c>
       <c r="G116" s="60" t="str">
@@ -10973,26 +10973,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A117" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B117" s="24" t="str">
-        <f>IF(OR(項目!C123="数式",項目!C123="主従関係",項目!C123="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C123="数式",Field!C123="主従関係",Field!C123="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C117" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D117" s="24">
-        <f>項目!B123</f>
+        <f>Field!B123</f>
         <v>0</v>
       </c>
       <c r="E117" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F117" s="60">
-        <f>項目!AW123</f>
+        <f>Field!AW123</f>
         <v>0</v>
       </c>
       <c r="G117" s="60" t="str">
@@ -11000,26 +11000,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A118" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B118" s="24" t="str">
-        <f>IF(OR(項目!C124="数式",項目!C124="主従関係",項目!C124="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C124="数式",Field!C124="主従関係",Field!C124="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C118" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D118" s="24">
-        <f>項目!B124</f>
+        <f>Field!B124</f>
         <v>0</v>
       </c>
       <c r="E118" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F118" s="60">
-        <f>項目!AW124</f>
+        <f>Field!AW124</f>
         <v>0</v>
       </c>
       <c r="G118" s="60" t="str">
@@ -11027,26 +11027,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A119" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B119" s="24" t="str">
-        <f>IF(OR(項目!C125="数式",項目!C125="主従関係",項目!C125="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C125="数式",Field!C125="主従関係",Field!C125="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C119" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D119" s="24">
-        <f>項目!B125</f>
+        <f>Field!B125</f>
         <v>0</v>
       </c>
       <c r="E119" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F119" s="60">
-        <f>項目!AW125</f>
+        <f>Field!AW125</f>
         <v>0</v>
       </c>
       <c r="G119" s="60" t="str">
@@ -11054,26 +11054,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A120" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B120" s="24" t="str">
-        <f>IF(OR(項目!C126="数式",項目!C126="主従関係",項目!C126="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C126="数式",Field!C126="主従関係",Field!C126="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C120" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D120" s="24">
-        <f>項目!B126</f>
+        <f>Field!B126</f>
         <v>0</v>
       </c>
       <c r="E120" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F120" s="60">
-        <f>項目!AW126</f>
+        <f>Field!AW126</f>
         <v>0</v>
       </c>
       <c r="G120" s="60" t="str">
@@ -11081,26 +11081,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A121" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B121" s="24" t="str">
-        <f>IF(OR(項目!C127="数式",項目!C127="主従関係",項目!C127="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C127="数式",Field!C127="主従関係",Field!C127="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C121" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D121" s="24">
-        <f>項目!B127</f>
+        <f>Field!B127</f>
         <v>0</v>
       </c>
       <c r="E121" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F121" s="60">
-        <f>項目!AW127</f>
+        <f>Field!AW127</f>
         <v>0</v>
       </c>
       <c r="G121" s="60" t="str">
@@ -11108,26 +11108,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A122" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B122" s="24" t="str">
-        <f>IF(OR(項目!C128="数式",項目!C128="主従関係",項目!C128="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C128="数式",Field!C128="主従関係",Field!C128="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C122" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D122" s="24">
-        <f>項目!B128</f>
+        <f>Field!B128</f>
         <v>0</v>
       </c>
       <c r="E122" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F122" s="60">
-        <f>項目!AW128</f>
+        <f>Field!AW128</f>
         <v>0</v>
       </c>
       <c r="G122" s="60" t="str">
@@ -11135,26 +11135,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A123" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B123" s="24" t="str">
-        <f>IF(OR(項目!C129="数式",項目!C129="主従関係",項目!C129="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C129="数式",Field!C129="主従関係",Field!C129="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C123" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D123" s="24">
-        <f>項目!B129</f>
+        <f>Field!B129</f>
         <v>0</v>
       </c>
       <c r="E123" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F123" s="60">
-        <f>項目!AW129</f>
+        <f>Field!AW129</f>
         <v>0</v>
       </c>
       <c r="G123" s="60" t="str">
@@ -11162,26 +11162,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A124" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B124" s="24" t="str">
-        <f>IF(OR(項目!C130="数式",項目!C130="主従関係",項目!C130="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C130="数式",Field!C130="主従関係",Field!C130="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C124" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D124" s="24">
-        <f>項目!B130</f>
+        <f>Field!B130</f>
         <v>0</v>
       </c>
       <c r="E124" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F124" s="60">
-        <f>項目!AW130</f>
+        <f>Field!AW130</f>
         <v>0</v>
       </c>
       <c r="G124" s="60" t="str">
@@ -11189,26 +11189,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A125" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B125" s="24" t="str">
-        <f>IF(OR(項目!C131="数式",項目!C131="主従関係",項目!C131="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C131="数式",Field!C131="主従関係",Field!C131="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C125" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D125" s="24">
-        <f>項目!B131</f>
+        <f>Field!B131</f>
         <v>0</v>
       </c>
       <c r="E125" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F125" s="60">
-        <f>項目!AW131</f>
+        <f>Field!AW131</f>
         <v>0</v>
       </c>
       <c r="G125" s="60" t="str">
@@ -11216,26 +11216,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A126" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B126" s="24" t="str">
-        <f>IF(OR(項目!C132="数式",項目!C132="主従関係",項目!C132="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C132="数式",Field!C132="主従関係",Field!C132="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C126" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D126" s="24">
-        <f>項目!B132</f>
+        <f>Field!B132</f>
         <v>0</v>
       </c>
       <c r="E126" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F126" s="60">
-        <f>項目!AW132</f>
+        <f>Field!AW132</f>
         <v>0</v>
       </c>
       <c r="G126" s="60" t="str">
@@ -11243,26 +11243,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A127" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B127" s="24" t="str">
-        <f>IF(OR(項目!C133="数式",項目!C133="主従関係",項目!C133="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C133="数式",Field!C133="主従関係",Field!C133="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C127" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D127" s="24">
-        <f>項目!B133</f>
+        <f>Field!B133</f>
         <v>0</v>
       </c>
       <c r="E127" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F127" s="60">
-        <f>項目!AW133</f>
+        <f>Field!AW133</f>
         <v>0</v>
       </c>
       <c r="G127" s="60" t="str">
@@ -11270,26 +11270,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A128" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B128" s="24" t="str">
-        <f>IF(OR(項目!C134="数式",項目!C134="主従関係",項目!C134="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C134="数式",Field!C134="主従関係",Field!C134="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C128" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D128" s="24">
-        <f>項目!B134</f>
+        <f>Field!B134</f>
         <v>0</v>
       </c>
       <c r="E128" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F128" s="60">
-        <f>項目!AW134</f>
+        <f>Field!AW134</f>
         <v>0</v>
       </c>
       <c r="G128" s="60" t="str">
@@ -11297,26 +11297,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A129" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B129" s="24" t="str">
-        <f>IF(OR(項目!C135="数式",項目!C135="主従関係",項目!C135="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C135="数式",Field!C135="主従関係",Field!C135="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C129" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D129" s="24">
-        <f>項目!B135</f>
+        <f>Field!B135</f>
         <v>0</v>
       </c>
       <c r="E129" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F129" s="60">
-        <f>項目!AW135</f>
+        <f>Field!AW135</f>
         <v>0</v>
       </c>
       <c r="G129" s="60" t="str">
@@ -11324,26 +11324,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A130" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B130" s="24" t="str">
-        <f>IF(OR(項目!C136="数式",項目!C136="主従関係",項目!C136="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C136="数式",Field!C136="主従関係",Field!C136="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C130" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D130" s="24">
-        <f>項目!B136</f>
+        <f>Field!B136</f>
         <v>0</v>
       </c>
       <c r="E130" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F130" s="60">
-        <f>項目!AW136</f>
+        <f>Field!AW136</f>
         <v>0</v>
       </c>
       <c r="G130" s="60" t="str">
@@ -11351,26 +11351,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A131" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B131" s="24" t="str">
-        <f>IF(OR(項目!C137="数式",項目!C137="主従関係",項目!C137="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C137="数式",Field!C137="主従関係",Field!C137="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C131" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D131" s="24">
-        <f>項目!B137</f>
+        <f>Field!B137</f>
         <v>0</v>
       </c>
       <c r="E131" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F131" s="60">
-        <f>項目!AW137</f>
+        <f>Field!AW137</f>
         <v>0</v>
       </c>
       <c r="G131" s="60" t="str">
@@ -11378,26 +11378,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A132" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B132" s="24" t="str">
-        <f>IF(OR(項目!C138="数式",項目!C138="主従関係",項目!C138="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C138="数式",Field!C138="主従関係",Field!C138="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C132" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D132" s="24">
-        <f>項目!B138</f>
+        <f>Field!B138</f>
         <v>0</v>
       </c>
       <c r="E132" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F132" s="60">
-        <f>項目!AW138</f>
+        <f>Field!AW138</f>
         <v>0</v>
       </c>
       <c r="G132" s="60" t="str">
@@ -11405,26 +11405,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A133" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B133" s="24" t="str">
-        <f>IF(OR(項目!C139="数式",項目!C139="主従関係",項目!C139="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C139="数式",Field!C139="主従関係",Field!C139="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C133" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D133" s="24">
-        <f>項目!B139</f>
+        <f>Field!B139</f>
         <v>0</v>
       </c>
       <c r="E133" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F133" s="60">
-        <f>項目!AW139</f>
+        <f>Field!AW139</f>
         <v>0</v>
       </c>
       <c r="G133" s="60" t="str">
@@ -11432,26 +11432,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A134" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B134" s="24" t="str">
-        <f>IF(OR(項目!C140="数式",項目!C140="主従関係",項目!C140="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C140="数式",Field!C140="主従関係",Field!C140="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C134" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D134" s="24">
-        <f>項目!B140</f>
+        <f>Field!B140</f>
         <v>0</v>
       </c>
       <c r="E134" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F134" s="60">
-        <f>項目!AW140</f>
+        <f>Field!AW140</f>
         <v>0</v>
       </c>
       <c r="G134" s="60" t="str">
@@ -11459,26 +11459,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A135" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B135" s="24" t="str">
-        <f>IF(OR(項目!C141="数式",項目!C141="主従関係",項目!C141="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C141="数式",Field!C141="主従関係",Field!C141="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C135" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D135" s="24">
-        <f>項目!B141</f>
+        <f>Field!B141</f>
         <v>0</v>
       </c>
       <c r="E135" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F135" s="60">
-        <f>項目!AW141</f>
+        <f>Field!AW141</f>
         <v>0</v>
       </c>
       <c r="G135" s="60" t="str">
@@ -11486,26 +11486,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A136" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B136" s="24" t="str">
-        <f>IF(OR(項目!C142="数式",項目!C142="主従関係",項目!C142="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C142="数式",Field!C142="主従関係",Field!C142="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C136" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D136" s="24">
-        <f>項目!B142</f>
+        <f>Field!B142</f>
         <v>0</v>
       </c>
       <c r="E136" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F136" s="60">
-        <f>項目!AW142</f>
+        <f>Field!AW142</f>
         <v>0</v>
       </c>
       <c r="G136" s="60" t="str">
@@ -11513,26 +11513,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A137" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B137" s="24" t="str">
-        <f>IF(OR(項目!C143="数式",項目!C143="主従関係",項目!C143="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C143="数式",Field!C143="主従関係",Field!C143="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C137" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D137" s="24">
-        <f>項目!B143</f>
+        <f>Field!B143</f>
         <v>0</v>
       </c>
       <c r="E137" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F137" s="60">
-        <f>項目!AW143</f>
+        <f>Field!AW143</f>
         <v>0</v>
       </c>
       <c r="G137" s="60" t="str">
@@ -11540,26 +11540,26 @@
         <v>&lt;layoutItems&gt;&lt;behavior&gt;Edit&lt;/behavior&gt;&lt;field&gt;0&lt;/field&gt;&lt;/layoutItems&gt;</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A138" s="63" t="s">
         <v>269</v>
       </c>
       <c r="B138" s="24" t="str">
-        <f>IF(OR(項目!C144="数式",項目!C144="主従関係",項目!C144="積み上げ集計"),"Readonly","Edit")</f>
+        <f>IF(OR(Field!C144="数式",Field!C144="主従関係",Field!C144="積み上げ集計"),"Readonly","Edit")</f>
         <v>Edit</v>
       </c>
       <c r="C138" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D138" s="24">
-        <f>項目!B144</f>
+        <f>Field!B144</f>
         <v>0</v>
       </c>
       <c r="E138" s="63" t="s">
         <v>271</v>
       </c>
       <c r="F138" s="60">
-        <f>項目!AW144</f>
+        <f>Field!AW144</f>
         <v>0</v>
       </c>
       <c r="G138" s="60" t="str">
@@ -11582,18 +11582,18 @@
       <selection activeCell="G2" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.4609375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.765625" style="64" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="64" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.6640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.69140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.69140625" style="64" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>259</v>
       </c>
@@ -11606,9 +11606,9 @@
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="str">
-        <f>項目!A7</f>
+        <f>Field!A7</f>
         <v>テスト_自動採番</v>
       </c>
       <c r="B2" s="60" t="str">
@@ -11619,23 +11619,23 @@
         <v>273</v>
       </c>
       <c r="D2" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F2" s="24" t="str">
-        <f>項目!B7</f>
+        <f>Field!B7</f>
         <v>test_auto__c</v>
       </c>
       <c r="G2" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="str">
-        <f>項目!A8</f>
+        <f>Field!A8</f>
         <v>テスト_URL</v>
       </c>
       <c r="B3" s="60" t="str">
@@ -11646,23 +11646,23 @@
         <v>273</v>
       </c>
       <c r="D3" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E3" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F3" s="24" t="str">
-        <f>項目!B8</f>
+        <f>Field!B8</f>
         <v>test_url__c</v>
       </c>
       <c r="G3" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="str">
-        <f>項目!A9</f>
+        <f>Field!A9</f>
         <v>テスト_メール</v>
       </c>
       <c r="B4" s="60" t="str">
@@ -11673,23 +11673,23 @@
         <v>273</v>
       </c>
       <c r="D4" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F4" s="24" t="str">
-        <f>項目!B9</f>
+        <f>Field!B9</f>
         <v>test_mail__c</v>
       </c>
       <c r="G4" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="str">
-        <f>項目!A10</f>
+        <f>Field!A10</f>
         <v>テスト_チェックボックス_true</v>
       </c>
       <c r="B5" s="60" t="str">
@@ -11700,23 +11700,23 @@
         <v>273</v>
       </c>
       <c r="D5" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F5" s="24" t="str">
-        <f>項目!B10</f>
+        <f>Field!B10</f>
         <v>test_checkbox_true__c</v>
       </c>
       <c r="G5" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="str">
-        <f>項目!A11</f>
+        <f>Field!A11</f>
         <v>テスト_チェックボックス_false</v>
       </c>
       <c r="B6" s="60" t="str">
@@ -11727,23 +11727,23 @@
         <v>273</v>
       </c>
       <c r="D6" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E6" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F6" s="24" t="str">
-        <f>項目!B11</f>
+        <f>Field!B11</f>
         <v>test_checkbox_false__c</v>
       </c>
       <c r="G6" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="str">
-        <f>項目!A12</f>
+        <f>Field!A12</f>
         <v>テスト_テキスト</v>
       </c>
       <c r="B7" s="60" t="str">
@@ -11754,23 +11754,23 @@
         <v>273</v>
       </c>
       <c r="D7" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E7" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F7" s="24" t="str">
-        <f>項目!B12</f>
+        <f>Field!B12</f>
         <v>test_text__c</v>
       </c>
       <c r="G7" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="str">
-        <f>項目!A13</f>
+        <f>Field!A13</f>
         <v>テスト_テキスト_初期値あり</v>
       </c>
       <c r="B8" s="60" t="str">
@@ -11781,23 +11781,23 @@
         <v>273</v>
       </c>
       <c r="D8" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E8" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F8" s="24" t="str">
-        <f>項目!B13</f>
+        <f>Field!B13</f>
         <v>test_text_init__c</v>
       </c>
       <c r="G8" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="str">
-        <f>項目!A14</f>
+        <f>Field!A14</f>
         <v>テスト_テキストエリア</v>
       </c>
       <c r="B9" s="60" t="str">
@@ -11808,23 +11808,23 @@
         <v>273</v>
       </c>
       <c r="D9" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E9" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F9" s="24" t="str">
-        <f>項目!B14</f>
+        <f>Field!B14</f>
         <v>test_textarea__c</v>
       </c>
       <c r="G9" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A10" s="60" t="str">
-        <f>項目!A15</f>
+        <f>Field!A15</f>
         <v>テスト_テキストエリア (リッチ)</v>
       </c>
       <c r="B10" s="60" t="str">
@@ -11835,23 +11835,23 @@
         <v>273</v>
       </c>
       <c r="D10" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F10" s="24" t="str">
-        <f>項目!B15</f>
+        <f>Field!B15</f>
         <v>test_html__c</v>
       </c>
       <c r="G10" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="str">
-        <f>項目!A16</f>
+        <f>Field!A16</f>
         <v>テスト_ロングテキストエリア</v>
       </c>
       <c r="B11" s="60" t="str">
@@ -11862,23 +11862,23 @@
         <v>273</v>
       </c>
       <c r="D11" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F11" s="24" t="str">
-        <f>項目!B16</f>
+        <f>Field!B16</f>
         <v>test_longtext__c</v>
       </c>
       <c r="G11" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="str">
-        <f>項目!A17</f>
+        <f>Field!A17</f>
         <v>テスト_パーセント</v>
       </c>
       <c r="B12" s="60" t="str">
@@ -11889,23 +11889,23 @@
         <v>273</v>
       </c>
       <c r="D12" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F12" s="24" t="str">
-        <f>項目!B17</f>
+        <f>Field!B17</f>
         <v>test_percent__c</v>
       </c>
       <c r="G12" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="str">
-        <f>項目!A18</f>
+        <f>Field!A18</f>
         <v>テスト_通貨</v>
       </c>
       <c r="B13" s="60" t="str">
@@ -11916,23 +11916,23 @@
         <v>273</v>
       </c>
       <c r="D13" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F13" s="24" t="str">
-        <f>項目!B18</f>
+        <f>Field!B18</f>
         <v>test_currency__c</v>
       </c>
       <c r="G13" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="str">
-        <f>項目!A19</f>
+        <f>Field!A19</f>
         <v>テスト_数値</v>
       </c>
       <c r="B14" s="60" t="str">
@@ -11943,23 +11943,23 @@
         <v>273</v>
       </c>
       <c r="D14" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F14" s="24" t="str">
-        <f>項目!B19</f>
+        <f>Field!B19</f>
         <v>test_num__c</v>
       </c>
       <c r="G14" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A15" s="60" t="str">
-        <f>項目!A20</f>
+        <f>Field!A20</f>
         <v>テスト_選択リスト</v>
       </c>
       <c r="B15" s="60" t="str">
@@ -11970,23 +11970,23 @@
         <v>273</v>
       </c>
       <c r="D15" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E15" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F15" s="24" t="str">
-        <f>項目!B20</f>
+        <f>Field!B20</f>
         <v>test_select__c</v>
       </c>
       <c r="G15" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="str">
-        <f>項目!A22</f>
+        <f>Field!A22</f>
         <v>テスト_選択リスト（入力制限）</v>
       </c>
       <c r="B16" s="60" t="str">
@@ -11997,23 +11997,23 @@
         <v>273</v>
       </c>
       <c r="D16" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E16" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F16" s="24" t="str">
-        <f>項目!B22</f>
+        <f>Field!B22</f>
         <v>test_select_control__c</v>
       </c>
       <c r="G16" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A17" s="60" t="str">
-        <f>項目!A23</f>
+        <f>Field!A23</f>
         <v>テスト_選択リスト (複数選択)</v>
       </c>
       <c r="B17" s="60" t="str">
@@ -12024,23 +12024,23 @@
         <v>273</v>
       </c>
       <c r="D17" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F17" s="24" t="str">
-        <f>項目!B23</f>
+        <f>Field!B23</f>
         <v>test_multiselect__c</v>
       </c>
       <c r="G17" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A18" s="60" t="str">
-        <f>項目!A24</f>
+        <f>Field!A24</f>
         <v>テスト_地理位置情報</v>
       </c>
       <c r="B18" s="60" t="str">
@@ -12051,23 +12051,23 @@
         <v>273</v>
       </c>
       <c r="D18" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F18" s="24" t="str">
-        <f>項目!B24</f>
+        <f>Field!B24</f>
         <v>test_geo__c</v>
       </c>
       <c r="G18" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A19" s="60" t="str">
-        <f>項目!A25</f>
+        <f>Field!A25</f>
         <v>テスト_電話</v>
       </c>
       <c r="B19" s="60" t="str">
@@ -12078,23 +12078,23 @@
         <v>273</v>
       </c>
       <c r="D19" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E19" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F19" s="24" t="str">
-        <f>項目!B25</f>
+        <f>Field!B25</f>
         <v>test_phone__c</v>
       </c>
       <c r="G19" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="str">
-        <f>項目!A26</f>
+        <f>Field!A26</f>
         <v>テスト_日付</v>
       </c>
       <c r="B20" s="60" t="str">
@@ -12105,23 +12105,23 @@
         <v>273</v>
       </c>
       <c r="D20" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E20" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F20" s="24" t="str">
-        <f>項目!B26</f>
+        <f>Field!B26</f>
         <v>test_date__c</v>
       </c>
       <c r="G20" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A21" s="60" t="str">
-        <f>項目!A27</f>
+        <f>Field!A27</f>
         <v>テスト_日付/時間</v>
       </c>
       <c r="B21" s="60" t="str">
@@ -12132,23 +12132,23 @@
         <v>273</v>
       </c>
       <c r="D21" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E21" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F21" s="24" t="str">
-        <f>項目!B27</f>
+        <f>Field!B27</f>
         <v>test_datetime__c</v>
       </c>
       <c r="G21" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="str">
-        <f>項目!A28</f>
+        <f>Field!A28</f>
         <v>テスト_数式_数値</v>
       </c>
       <c r="B22" s="60" t="str">
@@ -12159,23 +12159,23 @@
         <v>273</v>
       </c>
       <c r="D22" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E22" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F22" s="24" t="str">
-        <f>項目!B28</f>
+        <f>Field!B28</f>
         <v>test_formula_num__c</v>
       </c>
       <c r="G22" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A23" s="60" t="str">
-        <f>項目!A29</f>
+        <f>Field!A29</f>
         <v>テスト_数式_パーセント</v>
       </c>
       <c r="B23" s="60" t="str">
@@ -12186,23 +12186,23 @@
         <v>273</v>
       </c>
       <c r="D23" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E23" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F23" s="24" t="str">
-        <f>項目!B29</f>
+        <f>Field!B29</f>
         <v>test_formula_percent__c</v>
       </c>
       <c r="G23" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="str">
-        <f>項目!A30</f>
+        <f>Field!A30</f>
         <v>テスト_数式_通貨</v>
       </c>
       <c r="B24" s="60" t="str">
@@ -12213,23 +12213,23 @@
         <v>273</v>
       </c>
       <c r="D24" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E24" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F24" s="24" t="str">
-        <f>項目!B30</f>
+        <f>Field!B30</f>
         <v>test_formula_currency__c</v>
       </c>
       <c r="G24" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="str">
-        <f>項目!A31</f>
+        <f>Field!A31</f>
         <v>テスト_数式_チェックボックス</v>
       </c>
       <c r="B25" s="60" t="str">
@@ -12240,23 +12240,23 @@
         <v>273</v>
       </c>
       <c r="D25" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E25" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F25" s="24" t="str">
-        <f>項目!B31</f>
+        <f>Field!B31</f>
         <v>test_formula_checkbox__c</v>
       </c>
       <c r="G25" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A26" s="60" t="str">
-        <f>項目!A32</f>
+        <f>Field!A32</f>
         <v>テスト_数式_日付</v>
       </c>
       <c r="B26" s="60" t="str">
@@ -12267,23 +12267,23 @@
         <v>273</v>
       </c>
       <c r="D26" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E26" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F26" s="24" t="str">
-        <f>項目!B32</f>
+        <f>Field!B32</f>
         <v>test_formula_date__c</v>
       </c>
       <c r="G26" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A27" s="60" t="str">
-        <f>項目!A33</f>
+        <f>Field!A33</f>
         <v>テスト_数式_日付/時間</v>
       </c>
       <c r="B27" s="60" t="str">
@@ -12294,23 +12294,23 @@
         <v>273</v>
       </c>
       <c r="D27" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E27" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F27" s="24" t="str">
-        <f>項目!B33</f>
+        <f>Field!B33</f>
         <v>test_formula_datetime__c</v>
       </c>
       <c r="G27" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A28" s="60" t="str">
-        <f>項目!A34</f>
+        <f>Field!A34</f>
         <v>テスト_数式_テキスト</v>
       </c>
       <c r="B28" s="60" t="str">
@@ -12321,23 +12321,23 @@
         <v>273</v>
       </c>
       <c r="D28" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E28" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F28" s="24" t="str">
-        <f>項目!B34</f>
+        <f>Field!B34</f>
         <v>test_formula_text__c</v>
       </c>
       <c r="G28" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A29" s="60" t="str">
-        <f>項目!A35</f>
+        <f>Field!A35</f>
         <v>テスト_参照関係</v>
       </c>
       <c r="B29" s="60" t="str">
@@ -12348,23 +12348,23 @@
         <v>273</v>
       </c>
       <c r="D29" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E29" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F29" s="24" t="str">
-        <f>項目!B35</f>
+        <f>Field!B35</f>
         <v>test_lookup__c</v>
       </c>
       <c r="G29" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A30" s="60" t="str">
-        <f>項目!A36</f>
+        <f>Field!A36</f>
         <v>テスト_主従関係</v>
       </c>
       <c r="B30" s="60" t="str">
@@ -12375,23 +12375,23 @@
         <v>273</v>
       </c>
       <c r="D30" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E30" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F30" s="24" t="str">
-        <f>項目!B36</f>
+        <f>Field!B36</f>
         <v>test_master__c</v>
       </c>
       <c r="G30" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A31" s="60" t="str">
-        <f>項目!A37</f>
+        <f>Field!A37</f>
         <v>テスト_積み上げ集計_件数</v>
       </c>
       <c r="B31" s="60" t="str">
@@ -12402,23 +12402,23 @@
         <v>273</v>
       </c>
       <c r="D31" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E31" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F31" s="24" t="str">
-        <f>項目!B37</f>
+        <f>Field!B37</f>
         <v>test_summary_count__c</v>
       </c>
       <c r="G31" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="str">
-        <f>項目!A38</f>
+        <f>Field!A38</f>
         <v>テスト_積み上げ集計_合計</v>
       </c>
       <c r="B32" s="60" t="str">
@@ -12429,23 +12429,23 @@
         <v>273</v>
       </c>
       <c r="D32" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E32" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F32" s="24" t="str">
-        <f>項目!B38</f>
+        <f>Field!B38</f>
         <v>test_summary_sum__c</v>
       </c>
       <c r="G32" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A33" s="60" t="str">
-        <f>項目!A39</f>
+        <f>Field!A39</f>
         <v>テスト_積み上げ集計_最大</v>
       </c>
       <c r="B33" s="60" t="str">
@@ -12456,23 +12456,23 @@
         <v>273</v>
       </c>
       <c r="D33" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E33" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F33" s="24" t="str">
-        <f>項目!B39</f>
+        <f>Field!B39</f>
         <v>test_summary_max__c</v>
       </c>
       <c r="G33" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="str">
-        <f>項目!A40</f>
+        <f>Field!A40</f>
         <v>テスト_積み上げ集計_最小</v>
       </c>
       <c r="B34" s="60" t="str">
@@ -12483,23 +12483,23 @@
         <v>273</v>
       </c>
       <c r="D34" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E34" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F34" s="24" t="str">
-        <f>項目!B40</f>
+        <f>Field!B40</f>
         <v>test_summary_min__c</v>
       </c>
       <c r="G34" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A35" s="60">
-        <f>項目!A41</f>
+        <f>Field!A41</f>
         <v>0</v>
       </c>
       <c r="B35" s="60" t="str">
@@ -12510,23 +12510,23 @@
         <v>273</v>
       </c>
       <c r="D35" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E35" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F35" s="24">
-        <f>項目!B41</f>
+        <f>Field!B41</f>
         <v>0</v>
       </c>
       <c r="G35" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A36" s="60">
-        <f>項目!A42</f>
+        <f>Field!A42</f>
         <v>0</v>
       </c>
       <c r="B36" s="60" t="str">
@@ -12537,23 +12537,23 @@
         <v>273</v>
       </c>
       <c r="D36" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E36" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F36" s="24">
-        <f>項目!B42</f>
+        <f>Field!B42</f>
         <v>0</v>
       </c>
       <c r="G36" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A37" s="60">
-        <f>項目!A43</f>
+        <f>Field!A43</f>
         <v>0</v>
       </c>
       <c r="B37" s="60" t="str">
@@ -12564,23 +12564,23 @@
         <v>273</v>
       </c>
       <c r="D37" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E37" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F37" s="24">
-        <f>項目!B43</f>
+        <f>Field!B43</f>
         <v>0</v>
       </c>
       <c r="G37" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A38" s="60">
-        <f>項目!A44</f>
+        <f>Field!A44</f>
         <v>0</v>
       </c>
       <c r="B38" s="60" t="str">
@@ -12591,21 +12591,21 @@
         <v>273</v>
       </c>
       <c r="D38" s="24" t="str">
-        <f>項目!$A$3</f>
+        <f>Field!$A$3</f>
         <v>CustomFieldTest__c</v>
       </c>
       <c r="E38" s="63" t="s">
         <v>274</v>
       </c>
       <c r="F38" s="24" t="str">
-        <f>項目!B44</f>
+        <f>Field!B44</f>
         <v>行を増やすときは上の行をコピーする</v>
       </c>
       <c r="G38" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
       <c r="C39" s="63"/>
@@ -12614,7 +12614,7 @@
       <c r="F39" s="24"/>
       <c r="G39" s="63"/>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
       <c r="C40" s="63"/>
@@ -12623,7 +12623,7 @@
       <c r="F40" s="24"/>
       <c r="G40" s="63"/>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
       <c r="C41" s="63"/>
@@ -12632,7 +12632,7 @@
       <c r="F41" s="24"/>
       <c r="G41" s="63"/>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
       <c r="C42" s="63"/>
@@ -12641,7 +12641,7 @@
       <c r="F42" s="24"/>
       <c r="G42" s="63"/>
     </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
       <c r="C43" s="63"/>
@@ -12650,7 +12650,7 @@
       <c r="F43" s="24"/>
       <c r="G43" s="63"/>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
       <c r="C44" s="63"/>
@@ -12659,7 +12659,7 @@
       <c r="F44" s="24"/>
       <c r="G44" s="63"/>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A45" s="60"/>
       <c r="B45" s="60"/>
       <c r="C45" s="63"/>
@@ -12668,7 +12668,7 @@
       <c r="F45" s="24"/>
       <c r="G45" s="63"/>
     </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A46" s="60"/>
       <c r="B46" s="60"/>
       <c r="C46" s="63"/>
@@ -12677,7 +12677,7 @@
       <c r="F46" s="24"/>
       <c r="G46" s="63"/>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A47" s="60"/>
       <c r="B47" s="60"/>
       <c r="C47" s="63"/>
@@ -12686,7 +12686,7 @@
       <c r="F47" s="24"/>
       <c r="G47" s="63"/>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A48" s="60"/>
       <c r="B48" s="60"/>
       <c r="C48" s="63"/>
@@ -12695,7 +12695,7 @@
       <c r="F48" s="24"/>
       <c r="G48" s="63"/>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A49" s="60"/>
       <c r="B49" s="60"/>
       <c r="C49" s="63"/>
@@ -12704,7 +12704,7 @@
       <c r="F49" s="24"/>
       <c r="G49" s="63"/>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A50" s="60"/>
       <c r="B50" s="60"/>
       <c r="C50" s="63"/>
@@ -12713,7 +12713,7 @@
       <c r="F50" s="24"/>
       <c r="G50" s="63"/>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A51" s="60"/>
       <c r="B51" s="60"/>
       <c r="C51" s="63"/>
@@ -12722,7 +12722,7 @@
       <c r="F51" s="24"/>
       <c r="G51" s="63"/>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A52" s="60"/>
       <c r="B52" s="60"/>
       <c r="C52" s="63"/>
@@ -12731,7 +12731,7 @@
       <c r="F52" s="24"/>
       <c r="G52" s="63"/>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A53" s="60"/>
       <c r="B53" s="60"/>
       <c r="C53" s="63"/>
@@ -12740,7 +12740,7 @@
       <c r="F53" s="24"/>
       <c r="G53" s="63"/>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A54" s="60"/>
       <c r="B54" s="60"/>
       <c r="C54" s="63"/>
@@ -12749,7 +12749,7 @@
       <c r="F54" s="24"/>
       <c r="G54" s="63"/>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A55" s="60"/>
       <c r="B55" s="60"/>
       <c r="C55" s="63"/>
@@ -12758,7 +12758,7 @@
       <c r="F55" s="24"/>
       <c r="G55" s="63"/>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A56" s="60"/>
       <c r="B56" s="60"/>
       <c r="C56" s="63"/>
@@ -12767,7 +12767,7 @@
       <c r="F56" s="24"/>
       <c r="G56" s="63"/>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A57" s="60"/>
       <c r="B57" s="60"/>
       <c r="C57" s="63"/>
@@ -12776,7 +12776,7 @@
       <c r="F57" s="24"/>
       <c r="G57" s="63"/>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A58" s="60"/>
       <c r="B58" s="60"/>
       <c r="C58" s="63"/>
@@ -12785,7 +12785,7 @@
       <c r="F58" s="24"/>
       <c r="G58" s="63"/>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A59" s="60"/>
       <c r="B59" s="60"/>
       <c r="C59" s="63"/>
@@ -12794,7 +12794,7 @@
       <c r="F59" s="24"/>
       <c r="G59" s="63"/>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A60" s="60"/>
       <c r="B60" s="60"/>
       <c r="C60" s="63"/>
@@ -12803,7 +12803,7 @@
       <c r="F60" s="24"/>
       <c r="G60" s="63"/>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A61" s="60"/>
       <c r="B61" s="60"/>
       <c r="C61" s="63"/>
@@ -12812,7 +12812,7 @@
       <c r="F61" s="24"/>
       <c r="G61" s="63"/>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A62" s="60"/>
       <c r="B62" s="60"/>
       <c r="C62" s="63"/>
@@ -12821,7 +12821,7 @@
       <c r="F62" s="24"/>
       <c r="G62" s="63"/>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A63" s="60"/>
       <c r="B63" s="60"/>
       <c r="C63" s="63"/>
@@ -12830,7 +12830,7 @@
       <c r="F63" s="24"/>
       <c r="G63" s="63"/>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A64" s="60"/>
       <c r="B64" s="60"/>
       <c r="C64" s="63"/>
@@ -12839,7 +12839,7 @@
       <c r="F64" s="24"/>
       <c r="G64" s="63"/>
     </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A65" s="60"/>
       <c r="B65" s="60"/>
       <c r="C65" s="63"/>
@@ -12848,7 +12848,7 @@
       <c r="F65" s="24"/>
       <c r="G65" s="63"/>
     </row>
-    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A66" s="60"/>
       <c r="B66" s="60"/>
       <c r="C66" s="63"/>
@@ -12857,7 +12857,7 @@
       <c r="F66" s="24"/>
       <c r="G66" s="63"/>
     </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A67" s="60"/>
       <c r="B67" s="60"/>
       <c r="C67" s="63"/>
@@ -12866,7 +12866,7 @@
       <c r="F67" s="24"/>
       <c r="G67" s="63"/>
     </row>
-    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A68" s="60"/>
       <c r="B68" s="60"/>
       <c r="C68" s="63"/>
@@ -12875,7 +12875,7 @@
       <c r="F68" s="24"/>
       <c r="G68" s="63"/>
     </row>
-    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A69" s="60"/>
       <c r="B69" s="60"/>
       <c r="C69" s="63"/>
@@ -12884,7 +12884,7 @@
       <c r="F69" s="24"/>
       <c r="G69" s="63"/>
     </row>
-    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A70" s="60"/>
       <c r="B70" s="60"/>
       <c r="C70" s="63"/>
@@ -12893,7 +12893,7 @@
       <c r="F70" s="24"/>
       <c r="G70" s="63"/>
     </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A71" s="60"/>
       <c r="B71" s="60"/>
       <c r="C71" s="63"/>
@@ -12902,7 +12902,7 @@
       <c r="F71" s="24"/>
       <c r="G71" s="63"/>
     </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A72" s="60"/>
       <c r="B72" s="60"/>
       <c r="C72" s="63"/>
@@ -12911,7 +12911,7 @@
       <c r="F72" s="24"/>
       <c r="G72" s="63"/>
     </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A73" s="60"/>
       <c r="B73" s="60"/>
       <c r="C73" s="63"/>
@@ -12920,7 +12920,7 @@
       <c r="F73" s="24"/>
       <c r="G73" s="63"/>
     </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A74" s="60"/>
       <c r="B74" s="60"/>
       <c r="C74" s="63"/>
@@ -12929,7 +12929,7 @@
       <c r="F74" s="24"/>
       <c r="G74" s="63"/>
     </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A75" s="60"/>
       <c r="B75" s="60"/>
       <c r="C75" s="63"/>
@@ -12938,7 +12938,7 @@
       <c r="F75" s="24"/>
       <c r="G75" s="63"/>
     </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A76" s="60"/>
       <c r="B76" s="60"/>
       <c r="C76" s="63"/>
@@ -12947,7 +12947,7 @@
       <c r="F76" s="24"/>
       <c r="G76" s="63"/>
     </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A77" s="60"/>
       <c r="B77" s="60"/>
       <c r="C77" s="63"/>
@@ -12956,7 +12956,7 @@
       <c r="F77" s="24"/>
       <c r="G77" s="63"/>
     </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A78" s="60"/>
       <c r="B78" s="60"/>
       <c r="C78" s="63"/>
@@ -12965,7 +12965,7 @@
       <c r="F78" s="24"/>
       <c r="G78" s="63"/>
     </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A79" s="60"/>
       <c r="B79" s="60"/>
       <c r="C79" s="63"/>
@@ -12974,7 +12974,7 @@
       <c r="F79" s="24"/>
       <c r="G79" s="63"/>
     </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A80" s="60"/>
       <c r="B80" s="60"/>
       <c r="C80" s="63"/>
@@ -12983,7 +12983,7 @@
       <c r="F80" s="24"/>
       <c r="G80" s="63"/>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A81" s="60"/>
       <c r="B81" s="60"/>
       <c r="C81" s="63"/>
@@ -12992,7 +12992,7 @@
       <c r="F81" s="24"/>
       <c r="G81" s="63"/>
     </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A82" s="60"/>
       <c r="B82" s="60"/>
       <c r="C82" s="63"/>
@@ -13001,7 +13001,7 @@
       <c r="F82" s="24"/>
       <c r="G82" s="63"/>
     </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A83" s="60"/>
       <c r="B83" s="60"/>
       <c r="C83" s="63"/>
@@ -13010,7 +13010,7 @@
       <c r="F83" s="24"/>
       <c r="G83" s="63"/>
     </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A84" s="60"/>
       <c r="B84" s="60"/>
       <c r="C84" s="63"/>
@@ -13019,7 +13019,7 @@
       <c r="F84" s="24"/>
       <c r="G84" s="63"/>
     </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A85" s="60"/>
       <c r="B85" s="60"/>
       <c r="C85" s="63"/>
@@ -13028,7 +13028,7 @@
       <c r="F85" s="24"/>
       <c r="G85" s="63"/>
     </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A86" s="60"/>
       <c r="B86" s="60"/>
       <c r="C86" s="63"/>
@@ -13037,7 +13037,7 @@
       <c r="F86" s="24"/>
       <c r="G86" s="63"/>
     </row>
-    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A87" s="60"/>
       <c r="B87" s="60"/>
       <c r="C87" s="63"/>
@@ -13046,7 +13046,7 @@
       <c r="F87" s="24"/>
       <c r="G87" s="63"/>
     </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A88" s="60"/>
       <c r="B88" s="60"/>
       <c r="C88" s="63"/>
@@ -13055,7 +13055,7 @@
       <c r="F88" s="24"/>
       <c r="G88" s="63"/>
     </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A89" s="60"/>
       <c r="B89" s="60"/>
       <c r="C89" s="63"/>
@@ -13064,7 +13064,7 @@
       <c r="F89" s="24"/>
       <c r="G89" s="63"/>
     </row>
-    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A90" s="60"/>
       <c r="B90" s="60"/>
       <c r="C90" s="63"/>
@@ -13073,7 +13073,7 @@
       <c r="F90" s="24"/>
       <c r="G90" s="63"/>
     </row>
-    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A91" s="60"/>
       <c r="B91" s="60"/>
       <c r="C91" s="63"/>
@@ -13082,7 +13082,7 @@
       <c r="F91" s="24"/>
       <c r="G91" s="63"/>
     </row>
-    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A92" s="60"/>
       <c r="B92" s="60"/>
       <c r="C92" s="63"/>
@@ -13091,7 +13091,7 @@
       <c r="F92" s="24"/>
       <c r="G92" s="63"/>
     </row>
-    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A93" s="60"/>
       <c r="B93" s="60"/>
       <c r="C93" s="63"/>
@@ -13100,7 +13100,7 @@
       <c r="F93" s="24"/>
       <c r="G93" s="63"/>
     </row>
-    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A94" s="60"/>
       <c r="B94" s="60"/>
       <c r="C94" s="63"/>
@@ -13109,7 +13109,7 @@
       <c r="F94" s="24"/>
       <c r="G94" s="63"/>
     </row>
-    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A95" s="60"/>
       <c r="B95" s="60"/>
       <c r="C95" s="63"/>
@@ -13118,7 +13118,7 @@
       <c r="F95" s="24"/>
       <c r="G95" s="63"/>
     </row>
-    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A96" s="60"/>
       <c r="B96" s="60"/>
       <c r="C96" s="63"/>
@@ -13127,7 +13127,7 @@
       <c r="F96" s="24"/>
       <c r="G96" s="63"/>
     </row>
-    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A97" s="60"/>
       <c r="B97" s="60"/>
       <c r="C97" s="63"/>
@@ -13136,7 +13136,7 @@
       <c r="F97" s="24"/>
       <c r="G97" s="63"/>
     </row>
-    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A98" s="60"/>
       <c r="B98" s="60"/>
       <c r="C98" s="63"/>
@@ -13145,7 +13145,7 @@
       <c r="F98" s="24"/>
       <c r="G98" s="63"/>
     </row>
-    <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A99" s="60"/>
       <c r="B99" s="60"/>
       <c r="C99" s="63"/>
@@ -13154,7 +13154,7 @@
       <c r="F99" s="24"/>
       <c r="G99" s="63"/>
     </row>
-    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A100" s="60"/>
       <c r="B100" s="60"/>
       <c r="C100" s="63"/>
@@ -13163,7 +13163,7 @@
       <c r="F100" s="24"/>
       <c r="G100" s="63"/>
     </row>
-    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A101" s="60"/>
       <c r="B101" s="60"/>
       <c r="C101" s="63"/>
@@ -13172,7 +13172,7 @@
       <c r="F101" s="24"/>
       <c r="G101" s="63"/>
     </row>
-    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A102" s="60"/>
       <c r="B102" s="60"/>
       <c r="C102" s="63"/>
@@ -13181,7 +13181,7 @@
       <c r="F102" s="24"/>
       <c r="G102" s="63"/>
     </row>
-    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A103" s="60"/>
       <c r="B103" s="60"/>
       <c r="C103" s="63"/>
@@ -13190,7 +13190,7 @@
       <c r="F103" s="24"/>
       <c r="G103" s="63"/>
     </row>
-    <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A104" s="60"/>
       <c r="B104" s="60"/>
       <c r="C104" s="63"/>
@@ -13199,7 +13199,7 @@
       <c r="F104" s="24"/>
       <c r="G104" s="63"/>
     </row>
-    <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A105" s="60"/>
       <c r="B105" s="60"/>
       <c r="C105" s="63"/>
@@ -13208,7 +13208,7 @@
       <c r="F105" s="24"/>
       <c r="G105" s="63"/>
     </row>
-    <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A106" s="60"/>
       <c r="B106" s="60"/>
       <c r="C106" s="63"/>
@@ -13217,7 +13217,7 @@
       <c r="F106" s="24"/>
       <c r="G106" s="63"/>
     </row>
-    <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A107" s="60"/>
       <c r="B107" s="60"/>
       <c r="C107" s="63"/>
@@ -13226,7 +13226,7 @@
       <c r="F107" s="24"/>
       <c r="G107" s="63"/>
     </row>
-    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A108" s="60"/>
       <c r="B108" s="60"/>
       <c r="C108" s="63"/>
@@ -13235,7 +13235,7 @@
       <c r="F108" s="24"/>
       <c r="G108" s="63"/>
     </row>
-    <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A109" s="60"/>
       <c r="B109" s="60"/>
       <c r="C109" s="63"/>
@@ -13244,7 +13244,7 @@
       <c r="F109" s="24"/>
       <c r="G109" s="63"/>
     </row>
-    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A110" s="60"/>
       <c r="B110" s="60"/>
       <c r="C110" s="63"/>
@@ -13253,7 +13253,7 @@
       <c r="F110" s="24"/>
       <c r="G110" s="63"/>
     </row>
-    <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A111" s="60"/>
       <c r="B111" s="60"/>
       <c r="C111" s="63"/>
@@ -13262,7 +13262,7 @@
       <c r="F111" s="24"/>
       <c r="G111" s="63"/>
     </row>
-    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A112" s="60"/>
       <c r="B112" s="60"/>
       <c r="C112" s="63"/>
@@ -13271,7 +13271,7 @@
       <c r="F112" s="24"/>
       <c r="G112" s="63"/>
     </row>
-    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A113" s="60"/>
       <c r="B113" s="60"/>
       <c r="C113" s="63"/>
@@ -13280,7 +13280,7 @@
       <c r="F113" s="24"/>
       <c r="G113" s="63"/>
     </row>
-    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A114" s="60"/>
       <c r="B114" s="60"/>
       <c r="C114" s="63"/>
@@ -13289,7 +13289,7 @@
       <c r="F114" s="24"/>
       <c r="G114" s="63"/>
     </row>
-    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A115" s="60"/>
       <c r="B115" s="60"/>
       <c r="C115" s="63"/>
@@ -13298,7 +13298,7 @@
       <c r="F115" s="24"/>
       <c r="G115" s="63"/>
     </row>
-    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A116" s="60"/>
       <c r="B116" s="60"/>
       <c r="C116" s="63"/>
@@ -13307,7 +13307,7 @@
       <c r="F116" s="24"/>
       <c r="G116" s="63"/>
     </row>
-    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A117" s="60"/>
       <c r="B117" s="60"/>
       <c r="C117" s="63"/>
@@ -13316,7 +13316,7 @@
       <c r="F117" s="24"/>
       <c r="G117" s="63"/>
     </row>
-    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A118" s="60"/>
       <c r="B118" s="60"/>
       <c r="C118" s="63"/>
@@ -13325,7 +13325,7 @@
       <c r="F118" s="24"/>
       <c r="G118" s="63"/>
     </row>
-    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A119" s="60"/>
       <c r="B119" s="60"/>
       <c r="C119" s="63"/>
@@ -13334,7 +13334,7 @@
       <c r="F119" s="24"/>
       <c r="G119" s="63"/>
     </row>
-    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A120" s="60"/>
       <c r="B120" s="60"/>
       <c r="C120" s="63"/>
@@ -13343,7 +13343,7 @@
       <c r="F120" s="24"/>
       <c r="G120" s="63"/>
     </row>
-    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A121" s="60"/>
       <c r="B121" s="60"/>
       <c r="C121" s="63"/>
@@ -13352,7 +13352,7 @@
       <c r="F121" s="24"/>
       <c r="G121" s="63"/>
     </row>
-    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A122" s="60"/>
       <c r="B122" s="60"/>
       <c r="C122" s="63"/>
@@ -13361,7 +13361,7 @@
       <c r="F122" s="24"/>
       <c r="G122" s="63"/>
     </row>
-    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A123" s="60"/>
       <c r="B123" s="60"/>
       <c r="C123" s="63"/>
@@ -13370,7 +13370,7 @@
       <c r="F123" s="24"/>
       <c r="G123" s="63"/>
     </row>
-    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A124" s="60"/>
       <c r="B124" s="60"/>
       <c r="C124" s="63"/>
@@ -13379,7 +13379,7 @@
       <c r="F124" s="24"/>
       <c r="G124" s="63"/>
     </row>
-    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A125" s="60"/>
       <c r="B125" s="60"/>
       <c r="C125" s="63"/>
@@ -13388,7 +13388,7 @@
       <c r="F125" s="24"/>
       <c r="G125" s="63"/>
     </row>
-    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A126" s="60"/>
       <c r="B126" s="60"/>
       <c r="C126" s="63"/>
@@ -13397,7 +13397,7 @@
       <c r="F126" s="24"/>
       <c r="G126" s="63"/>
     </row>
-    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A127" s="60"/>
       <c r="B127" s="60"/>
       <c r="C127" s="63"/>
@@ -13406,7 +13406,7 @@
       <c r="F127" s="24"/>
       <c r="G127" s="63"/>
     </row>
-    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A128" s="60"/>
       <c r="B128" s="60"/>
       <c r="C128" s="63"/>
@@ -13415,7 +13415,7 @@
       <c r="F128" s="24"/>
       <c r="G128" s="63"/>
     </row>
-    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A129" s="60"/>
       <c r="B129" s="60"/>
       <c r="C129" s="63"/>
@@ -13424,7 +13424,7 @@
       <c r="F129" s="24"/>
       <c r="G129" s="63"/>
     </row>
-    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A130" s="60"/>
       <c r="B130" s="60"/>
       <c r="C130" s="63"/>
@@ -13433,7 +13433,7 @@
       <c r="F130" s="24"/>
       <c r="G130" s="63"/>
     </row>
-    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A131" s="60"/>
       <c r="B131" s="60"/>
       <c r="C131" s="63"/>
@@ -13442,7 +13442,7 @@
       <c r="F131" s="24"/>
       <c r="G131" s="63"/>
     </row>
-    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A132" s="60"/>
       <c r="B132" s="60"/>
       <c r="C132" s="63"/>
@@ -13451,7 +13451,7 @@
       <c r="F132" s="24"/>
       <c r="G132" s="63"/>
     </row>
-    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A133" s="60"/>
       <c r="B133" s="60"/>
       <c r="C133" s="63"/>
@@ -13460,7 +13460,7 @@
       <c r="F133" s="24"/>
       <c r="G133" s="63"/>
     </row>
-    <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A134" s="60"/>
       <c r="B134" s="60"/>
       <c r="C134" s="63"/>
@@ -13469,7 +13469,7 @@
       <c r="F134" s="24"/>
       <c r="G134" s="63"/>
     </row>
-    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A135" s="60"/>
       <c r="B135" s="60"/>
       <c r="C135" s="63"/>
@@ -13478,7 +13478,7 @@
       <c r="F135" s="24"/>
       <c r="G135" s="63"/>
     </row>
-    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A136" s="60"/>
       <c r="B136" s="60"/>
       <c r="C136" s="63"/>
@@ -13487,7 +13487,7 @@
       <c r="F136" s="24"/>
       <c r="G136" s="63"/>
     </row>
-    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A137" s="60"/>
       <c r="B137" s="60"/>
       <c r="C137" s="63"/>
@@ -13496,7 +13496,7 @@
       <c r="F137" s="24"/>
       <c r="G137" s="63"/>
     </row>
-    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A138" s="60"/>
       <c r="B138" s="60"/>
       <c r="C138" s="63"/>
@@ -13505,7 +13505,7 @@
       <c r="F138" s="24"/>
       <c r="G138" s="63"/>
     </row>
-    <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A139" s="60"/>
       <c r="B139" s="60"/>
       <c r="C139" s="63"/>
@@ -13514,7 +13514,7 @@
       <c r="F139" s="24"/>
       <c r="G139" s="63"/>
     </row>
-    <row r="140" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A140" s="60"/>
       <c r="B140" s="60"/>
       <c r="C140" s="63"/>
@@ -13523,7 +13523,7 @@
       <c r="F140" s="24"/>
       <c r="G140" s="63"/>
     </row>
-    <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A141" s="60"/>
       <c r="B141" s="60"/>
       <c r="C141" s="63"/>
@@ -13532,7 +13532,7 @@
       <c r="F141" s="24"/>
       <c r="G141" s="63"/>
     </row>
-    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A142" s="60"/>
       <c r="B142" s="60"/>
       <c r="C142" s="63"/>
@@ -13541,7 +13541,7 @@
       <c r="F142" s="24"/>
       <c r="G142" s="63"/>
     </row>
-    <row r="143" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A143" s="60"/>
       <c r="B143" s="60"/>
       <c r="C143" s="63"/>
@@ -13550,7 +13550,7 @@
       <c r="F143" s="24"/>
       <c r="G143" s="63"/>
     </row>
-    <row r="144" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A144" s="60"/>
       <c r="B144" s="60"/>
       <c r="C144" s="63"/>
@@ -13559,7 +13559,7 @@
       <c r="F144" s="24"/>
       <c r="G144" s="63"/>
     </row>
-    <row r="145" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A145" s="60"/>
       <c r="B145" s="60"/>
       <c r="C145" s="63"/>
@@ -13568,7 +13568,7 @@
       <c r="F145" s="24"/>
       <c r="G145" s="63"/>
     </row>
-    <row r="146" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A146" s="60"/>
       <c r="B146" s="60"/>
       <c r="C146" s="63"/>
@@ -13577,7 +13577,7 @@
       <c r="F146" s="24"/>
       <c r="G146" s="63"/>
     </row>
-    <row r="147" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A147" s="60"/>
       <c r="B147" s="60"/>
       <c r="C147" s="63"/>
@@ -13586,7 +13586,7 @@
       <c r="F147" s="24"/>
       <c r="G147" s="63"/>
     </row>
-    <row r="148" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A148" s="60"/>
       <c r="B148" s="60"/>
       <c r="C148" s="63"/>
@@ -13595,7 +13595,7 @@
       <c r="F148" s="24"/>
       <c r="G148" s="63"/>
     </row>
-    <row r="149" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A149" s="60"/>
       <c r="B149" s="60"/>
       <c r="C149" s="63"/>
@@ -13604,7 +13604,7 @@
       <c r="F149" s="24"/>
       <c r="G149" s="63"/>
     </row>
-    <row r="150" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A150" s="60"/>
       <c r="B150" s="60"/>
       <c r="C150" s="63"/>
@@ -13613,7 +13613,7 @@
       <c r="F150" s="24"/>
       <c r="G150" s="63"/>
     </row>
-    <row r="151" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A151" s="60"/>
       <c r="B151" s="60"/>
       <c r="C151" s="63"/>
@@ -13622,7 +13622,7 @@
       <c r="F151" s="24"/>
       <c r="G151" s="63"/>
     </row>
-    <row r="152" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A152" s="60"/>
       <c r="B152" s="60"/>
       <c r="C152" s="63"/>
@@ -13631,7 +13631,7 @@
       <c r="F152" s="24"/>
       <c r="G152" s="63"/>
     </row>
-    <row r="153" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="14.6" x14ac:dyDescent="0.25">
       <c r="A153" s="60"/>
       <c r="B153" s="60"/>
       <c r="C153" s="63"/>
